--- a/cw/google_search/combined_names.xlsx
+++ b/cw/google_search/combined_names.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -118,21 +118,12 @@
     <t>organization (琉球新報社 OR 琉球銀行 OR 立飛企業 OR 立川ブラインド工業 OR 立山アルミニウム工業 OR 立花証券 OR 立花エレテック OR 理想科学工業 OR 理想科学 OR 理研電線 OR 理研計器 OR 理研ビタミン OR 理研コランダム)</t>
   </si>
   <si>
-    <t>organization (理研グリーン OR 理経 OR 利根地下技術 OR 利根コカ・コーラボトリング OR 藍沢証券 OR 淀川製鋼所 OR 養命酒製造 OR 陽光都市開発 OR 幼児活動研究会 OR 郵船商事 OR 郵船ロジスティクス OR 湧永製薬 OR 有沢製作所)</t>
-  </si>
-  <si>
     <t>organization (有機合成薬品工業 OR 有楽土地 OR 輸送機工業 OR 油研工業 OR 薬王堂 OR 矢作建設工業 OR 矢崎総業 OR 野田スクリーン OR 野村不動産投資顧問 OR 野村不動産ホールディングス OR 野村不動産パートナーズ OR 野村不動産アーバンネット OR 野村不動産)</t>
   </si>
   <si>
-    <t>organization (野村信託銀行 OR 野村証券 OR 野村證券 OR 野村リビングサポート OR 野村マイクロ・サイエンス OR 野村ホールディングス OR 野村ホーム OR 野村ブラックロック・アセット・マネジメント OR 野村ファンド・リサーチ・アンド・テクノロジー OR 野村アセットマネジメント OR 野崎印刷紙業 OR 野原産業 OR 野村総合研究所)</t>
-  </si>
-  <si>
     <t>organization (木村証券 OR 木村化工機 OR 木曽路 OR 免疫生物研究所 OR 盟和産業 OR 明和地所 OR 明和証券 OR 明和産業 OR 明豊エンタープライズ OR 明電舎 OR 明星電気 OR 明星工業 OR 明祥)</t>
   </si>
   <si>
-    <t>organization (明治乳業 OR 明治電機工業 OR 明治製菓 OR 明治機械 OR 明治海運 OR 明治屋商事 OR 明治屋 OR 明治安田損害保険 OR 明治安田生命保険 OR 明治安田アセットマネジメント OR 明治ホールディングス OR 明治ドレスナー・アセットマネジメント OR 明治ゴム化成)</t>
-  </si>
-  <si>
     <t>organization (明光商会 OR 明光ネットワークジャパン OR 名糖産業 OR 名鉄不動産 OR 名鉄百貨店 OR 名鉄観光サービス OR 名鉄運輸 OR 名村造船所 OR 名祥 OR 名港海運 OR 名工建設 OR 名古屋木材 OR 名古屋電機工業)</t>
   </si>
   <si>
@@ -148,9 +139,6 @@
     <t>organization (北野建設 OR 北日本紡績 OR 北日本銀行 OR 北都銀行 OR 北沢産業 OR 北川鉄工所 OR 北川精機 OR 北川工業 OR 北国新聞社 OR 北国銀行 OR 北弘電社 OR 北恵 OR 北九州銀行)</t>
   </si>
   <si>
-    <t>organization (北興化学工業 OR 北海道旅客鉄道 OR 北海道放送 OR 北海道電力 OR 北海道中央バス OR 北海道新聞社 OR 北海道丸井今井 OR 北海道テレビ放送 OR 北海道セキスイハイム OR 北海道コカ・コーラボトリング OR 北海電気工事 OR 北海製缶 OR 北海道文化放送)</t>
-  </si>
-  <si>
     <t>organization (北越製紙 OR 北越工業 OR 北越銀行 OR 北越紀州製紙 OR 北越メタル OR 北の達人コーポレーション OR 豊和工業 OR 豊和銀行 OR 豊平製鋼 OR 豊田紡織 OR 豊田通商 OR 豊田自動織機 OR 豊田合成)</t>
   </si>
   <si>
@@ -169,15 +157,9 @@
     <t>organization (武蔵精密工業 OR 武井工業所 OR 芙蓉総合リース OR 扶桑薬品工業 OR 扶桑電通 OR 扶桑化学工業 OR 扶桑レクセル OR 富士紡ホールディングス OR 富士変速機 OR 富士物流 OR 富士電機機器制御 OR 富士電機システムズ OR 富士電機アドバンストテクノロジー)</t>
   </si>
   <si>
-    <t>organization (富士電機E&amp;C OR 富士電機 OR 富士通フロンテック OR 富士通ビー・エス・シー OR 富士通パーソナルズ OR 富士通ネットワークソリューションズ OR 富士通テン OR 富士通テレコムネットワークス OR 富士通デバイス OR 富士通セミコンダクター OR 富士通ゼネラル OR 富士通コンポーネント OR 富士通エレクトロニクス)</t>
-  </si>
-  <si>
     <t>organization (富士通エフサス OR 富士通アドバンストエンジニアリング OR 富士通アクセス OR 富士通 OR 富士総合研究所 OR 富士石油 OR 富士製薬工業 OR 富士製粉 OR 富士精工 OR 富士生命保険 OR 富士重工業 OR 富士電機システム OR 富士古河E&amp;C)</t>
   </si>
   <si>
-    <t>organization (富士興産 OR 富士急行 OR 富士機工 OR 富士機械製造 OR 富士機械 OR 富士レビオ OR 富士フイルムホールディングス OR 富士フイルム OR 富士ピー・エス OR 富士バイオメディックス OR 富士テクニカ宮津 OR 富士テクニカ OR 富士ソフト)</t>
-  </si>
-  <si>
     <t>organization (富士ゼロックス OR 富士エレクトロニクス OR 富山第一銀行 OR 富山銀行 OR 富山化学工業 OR 富国生命保険 OR 富国生命投資顧問 OR 不二電機工業 OR 不二製油 OR 不二硝子 OR 不二家 OR 不二越 OR 不二ラテックス)</t>
   </si>
   <si>
@@ -187,9 +169,6 @@
     <t>organization (桧家ホールディングス OR 菱洋エレクトロ OR 菱友システムズ OR 菱電商事 OR 菱電エレベータ施設 OR 菱食 OR 菱三商事 OR 菱化システム OR 美濃窯業 OR 美樹工業 OR 尾道造船 OR 尾張精機 OR 尾家産業)</t>
   </si>
   <si>
-    <t>organization (肥後銀行 OR 比較・com OR 卑弥呼 OR 飯野海運 OR 飯田通商 OR 八木通商 OR 八幡証券 OR 八千代工業 OR 八千代銀行 OR 八十二証券 OR 八十二銀行 OR 八洲電機 OR 八光信用金庫)</t>
-  </si>
-  <si>
     <t>organization (函館どつく OR 白洋舎 OR 白銅 OR 白鶴酒造 OR 白石 OR 白青舎 OR 博報堂プロダクツ OR 博報堂DYメディアパートナーズ OR 博報堂DYホールディングス OR 博報堂 OR 博展 OR 伯東 OR 萩原電気)</t>
   </si>
   <si>
@@ -199,15 +178,6 @@
     <t>organization (日糧製パン OR 日立粉末冶金 OR 日立物流 OR 日立造船富岡機械 OR 日立造船 OR 日立製作所 OR 日立情報システムズ OR 日立産業制御ソリューションズ OR 日立産機システム OR 日立三菱水力 OR 日立工機 OR 日立建機 OR 日立金属商事)</t>
   </si>
   <si>
-    <t>organization (日立金属アドメット OR 日立金属 OR 日立機電工業 OR 日立機材 OR 日立化成商事 OR 日立化成工業 OR 日立化成 OR 日立ライティング OR 日立ホーム・アンド・ライフ・ソリューション OR 日立プラント建設 OR 日立プラントテクノロジー OR 日立プラントサービス OR 日立プラントコンストラクション)</t>
-  </si>
-  <si>
-    <t>organization (日立プラズマディスプレイ OR 日立ビルシステム OR 日立パワーソリューションズ OR 日立ハウステック OR 日立ハイテクノロジーズ OR 日立システムズ OR 日立システムアンドサービス OR 日立コンシューマエレクトロニクス OR 日立コンシューマ・マーケティング OR 日立コミュニケーションテクノロジー OR 日立キャピタル OR 日立オートパーツ&amp;サービス OR 日立エーアイシー)</t>
-  </si>
-  <si>
-    <t>organization (日立インダストリイズ OR 日立アプライアンス OR 日立GEニュークリア・エナジー OR 日油技研工業 OR 日油 OR 日野自動車 OR 日本坩堝 OR 日本和装ホールディングス OR 日本旅行 OR 日本郵便 OR 日本郵船 OR 日本郵政公社 OR 日本郵政)</t>
-  </si>
-  <si>
     <t>organization (日本油脂 OR 日本冶金工業 OR 日本毛織 OR 日本無線 OR 日本風力発電 OR 日本風力開発 OR 日本飛行機 OR 日本板硝子 OR 日本配合飼料 OR 日本農薬 OR 日本農産工業 OR 日本特殊陶業 OR 日本特殊塗料)</t>
   </si>
   <si>
@@ -244,36 +214,9 @@
     <t>organization (日本貨物鉄道 OR 日本科学冶金 OR 日本化薬 OR 日本化成 OR 日本化学産業 OR 日本化学工業 OR 日本液炭ホールディングス OR 日本液炭 OR 日本一ソフトウェア OR 日本ロングライフ OR 日本ロレアル OR 日本ロジテム OR 日本ロジステック)</t>
   </si>
   <si>
-    <t>organization (日本レヂボン OR 日本レストランシステム OR 日本リーテック OR 日本ラッド OR 日本ライフライン OR 日本ライトン OR 日本ユピカ OR 日本ユニシス・ソリューション OR 日本ユニシス OR 日本ユニコム OR 日本メディカルネットコミュニケーションズ OR 日本メクトロン OR 日本ミルクコミュニティ)</t>
-  </si>
-  <si>
     <t>organization (日本マニュファクチャリングサービス OR 日本マタイ OR 日本マスタートラスト信託銀行 OR 日本マクドナルドホールディングス OR 日本マイクロニクス OR 日本ポリプロ OR 日本ポリケム OR 日本ポリエチレン OR 日本ベーリンガーインゲルハイム OR 日本べーリンガーインゲルハイム OR 日本ペイント OR 日本プロセス OR 日本フルハーフ)</t>
   </si>
   <si>
-    <t>organization (日本プリメックス OR 日本プラスト OR 日本フォームサービス OR 日本フェンオール OR 日本フエルト OR 日本フイルコン OR 日本フィッツ OR 日本ファルコム OR 日本ファイリング OR 日本ヒューレット・パッカード OR 日本ヒューム OR 日本ビューホテル OR 日本ピストンリング)</t>
-  </si>
-  <si>
-    <t>organization (日本ビジネスコンピューター OR 日本ピグメント OR 日本ビクター OR 日本パワーファスニング OR 日本パレットプール OR 日本バルカー工業 OR 日本ハム OR 日本ハウズイング OR 日本バイリーン OR 日本ハイパック OR 日本パーキング OR 日本パーカライジング OR 日本ドレーク・ビーム・モリン)</t>
-  </si>
-  <si>
-    <t>organization (日本トリム OR 日本トランスシティ OR 日本トランスオーシャン航空 OR 日本トラスティ・サービス信託銀行 OR 日本ドライケミカル OR 日本トムソン OR 日本トーカンパッケージ OR 日本トイザらス OR 日本テレホン OR 日本テレビ放送網 OR 日本テレビホールディングス OR 日本テレコム OR 日本テラデータ)</t>
-  </si>
-  <si>
-    <t>organization (日本デジタル研究所 OR 日本デコラックス OR 日本テクノ・ラボ OR 日本テキサス・インスツルメンツ OR 日本タングステン OR 日本たばこ産業 OR 日本タッパーウェア OR 日本タタ・コンサルタンシー・サービシズ OR 日本タイムシェア OR 日本セラミック OR 日本ゼネラルフード OR 日本ゼオン OR 日本スピンドル製造)</t>
-  </si>
-  <si>
-    <t>organization (日本ジャンボー OR 日本シャクリー OR 日本システム技術 OR 日本シエーリング OR 日本サード・パーティ OR 日本コンラックス OR 日本コンピュータシステム OR 日本コンピューター・システム OR 日本コンピュータ・ダイナミクス OR 日本コンセプト OR 日本コンクリート工業 OR 日本コロムビア OR 日本コムシス)</t>
-  </si>
-  <si>
-    <t>organization (日本コークス工業 OR 日本ケミファ OR 日本ケミコン OR 日本ケミカルリサーチ OR 日本ケーブル・システム OR 日本ケアサプライ OR 日本クロージャー OR 日本ギア工業 OR 日本カタン OR 日本ガスケット OR 日本ガイシ OR 日本カーリット OR 日本カーボン)</t>
-  </si>
-  <si>
-    <t>organization (日本カーバイド工業 OR 日本カーソリューションズ OR 日本オラクル OR 日本オプティカル OR 日本オフィス・システム OR 日本オーチス・エレベータ OR 日本エンタープライズ OR 日本エルエスアイカード OR 日本エル・シー・エー OR 日本エム・ディ・エム OR 日本エマージェンシーアシスタンス OR 日本エスリード OR 日本エスコン)</t>
-  </si>
-  <si>
-    <t>organization (日本エス・エイチ・エル OR 日本エアーテック OR 日本エア・リキード OR 日本ウェーブロック OR 日本インテグランドホールディングス OR 日本アンテナ OR 日本アルミ OR 日本アムウェイ OR 日本アビオニクス OR 日本アセットマーケティング OR 日本アジア投資 OR 日本アジアグループ OR 日本アクセス)</t>
-  </si>
-  <si>
     <t>organization (日本アクア OR 日本SGI OR 日本NCR　 OR 日本NCR OR 日本M&amp;Aセンター OR 日本IR協議会 OR 日本GE OR 日本ERI OR 日本BS放送 OR 日本ATM OR 日本AEパワーシステムズ OR 日邦産業 OR 日平トヤマ)</t>
   </si>
   <si>
@@ -283,9 +226,6 @@
     <t>organization (日東エフシー OR 日伝 OR 日鉄物流 OR 日鉄住金溶接工業 OR 日鉄住金物流 OR 日鉄住金物産 OR 日鉄住金鋼板 OR 日鉄住金鋼管 OR 日鉄住金建材 OR 日鉄住金ドラム OR 日鉄住金テックスエンジ OR 日鉄鋼管 OR 日鉄鉱業)</t>
   </si>
   <si>
-    <t>organization (日鉄リース OR 日通NECロジスティクス OR 日鍛バルブ OR 日創プロニティ OR 日精樹脂工業 OR 日精エー・エス・ビー機械 OR 日清紡メカトロニクス OR 日清紡ホールディングス OR 日清紡ブレーキ OR 日清紡テキスタイル OR 日清紡 OR 日清製粉グループ本社 OR 日清製粉)</t>
-  </si>
-  <si>
     <t>organization (日清食品ホールディングス OR 日清丸紅飼料 OR 日清医療食品 OR 日清フーズ OR 日清オイリオグループ OR 日清オイリオ OR 日成ビルド工業 OR 日水製薬 OR 日進工具 OR 日神不動産 OR 日新電機 OR 日新製糖 OR 日新製鋼)</t>
   </si>
   <si>
@@ -298,9 +238,6 @@
     <t>organization (日経大阪即売 OR 日経大阪総合サービス OR 日経総合サービス OR 日経西部販売開発 OR 日経西日本製作センター OR 日経首都圏印刷 OR 日経広告研究所 OR 日経広告 OR 日経映像 OR 日経印刷 OR 日経茨城製作センター OR 日経リサーチ OR 日経ラジオ社)</t>
   </si>
   <si>
-    <t>organization (日経メディアマーケティング OR 日経メディアプロモーション OR 日経ホーム出版社 OR 日経プラザ&amp;サービス OR 日経ビルサービス OR 日経カルチャー OR 日経QUICKニュース社 OR 日経HR OR 日経CNBC OR 日経BP OR 日銀 OR 日興フィナンシャル・インテリジェンス OR 日興ビジネスシステムズ)</t>
-  </si>
-  <si>
     <t>organization (日興シティグループ証券 OR 日興システムソリューションズ OR 日興コーディアルグループ OR 日興グローバルラップ OR 日興アセットマネジメント OR 日機装 OR 日揮触媒化成 OR 日揮プラントイノベーション OR 日揮 OR 日華化学 OR 日医工 OR 日亜鋼業 OR 日の出証券)</t>
   </si>
   <si>
@@ -355,18 +292,9 @@
     <t>organization (東京スター銀行 OR 東京コスモス電機 OR 東京カソード研究所 OR 東京ガス OR 東京オートリース OR 東京エレクトロンデバイス OR 東京エレクトロン OR 東京エネシス OR 東京インキ OR 東京TYフィナンシャルグループ OR 東急不動産 OR 東急百貨店 OR 東急建設)</t>
   </si>
   <si>
-    <t>organization (東急レクリエーション OR 東急リバブル OR 東急ホテルズ OR 東急ハンズ OR 東急コミュニティー OR 東急エージェンシー OR 東缶興業 OR 東葛ホールディングス OR 東海旅客鉄道 OR 東海理化 OR 東海物産 OR 東海東邦 OR 東海東京フィナンシャル・ホールディングス)</t>
-  </si>
-  <si>
     <t>organization (東海澱粉 OR 東海高熱工業 OR 東海興業 OR 東海汽船 OR 東海観光 OR 東海運 OR 東海リース OR 東海パルプ OR 東海テレビ放送 OR 東海ゴム工業 OR 東海カーボン OR 東海エレクトロニクス OR 東海アルミ箔)</t>
   </si>
   <si>
-    <t>organization (東栄住宅 OR 東栄リーファーライン OR 東映ラボ・テック OR 東映アニメーション OR 東映 OR 東亜道路工業 OR 東亜石油 OR 東亜合成 OR 東亜建設工業 OR 東亜バルブエンジニアリング OR 東亜バルブ OR 東亜ディーケーケー OR 東レ建設)</t>
-  </si>
-  <si>
-    <t>organization (東レエンジニアリング OR 東レインターナショナル OR 東レ・メディカル OR 東レ・デュポン OR 東レ・ダウコーニング OR 東レ OR 東リ OR 東プレ OR 東テク OR 東ソー物流 OR 東ソー OR 東セロ OR 島田理化工業)</t>
-  </si>
-  <si>
     <t>organization (島忠 OR 島精機製作所 OR 島根銀行 OR 土屋ホールディングス OR 土屋ホーム OR 都築電産 OR 都築電気 OR 電通国際情報サービス OR 電通テック OR 電通 OR 電算システム OR 電算 OR 電響社)</t>
   </si>
   <si>
@@ -394,9 +322,6 @@
     <t>organization (中日本高速道路 OR 中日本興業 OR 中日新聞社 OR 中道機械 OR 中道リース OR 中電工 OR 中村屋 OR 中西製作所 OR 中小企業信用機構 OR 中小企業金融公庫 OR 中国放送 OR 中国塗料 OR 中国電力)</t>
   </si>
   <si>
-    <t>organization (中国新聞社 OR 中国工業 OR 中国銀行 OR 中広 OR 中原証券 OR 中京医薬品 OR 中京コカ・コーラボトリング OR 中外炉工業 OR 中外製薬 OR 中外鉱業 OR 中央毛織 OR 中央無線 OR 中央発条)</t>
-  </si>
-  <si>
     <t>organization (中央電気工業 OR 中央倉庫 OR 中央住宅 OR 中央紙器工業 OR 中央三井アセット信託銀行 OR 中央経済社 OR 中京銀行 OR 中央化学 OR 中央運輸 OR 中央ビルト工業 OR 中越パルプ工業 OR 中山福 OR 中央可鍛工業)</t>
   </si>
   <si>
@@ -409,18 +334,12 @@
     <t>organization (第一精工 OR 第一生命保険 OR 第一商品 OR 第一実業 OR 第一三共ヘルスケア OR 第一三共 OR 第一工業製薬 OR 第一交通産業 OR 第一建設工業 OR 第一興商 OR 第一稀元素化学工業 OR 第一化成 OR 第一屋製パン)</t>
   </si>
   <si>
-    <t>organization (第一フロンティア生命保険 OR 第一カッター興業 OR 大和冷機工業 OR 大和電設工業 OR 大和総研ホールディングス OR 大和総研ビジネス・イノベーション OR 大和総研 OR 大和生命保険 OR 大和証券投資信託委託 OR 大和証券グループ本社 OR 大和証券キャピタル・マーケッツ OR 大和証券エスエムビーシー OR 大和証券)</t>
-  </si>
-  <si>
     <t>organization (大和小田急建設 OR 大和重工 OR 大和住銀投信投資顧問 OR 大和実業 OR 大和自動車交通 OR 大和鋼帯 OR 大和工業 OR 大和企業投資 OR 大和リビング OR 大和リース OR 大和ライフネクスト OR 大和ハウス工業 OR 大林道路)</t>
   </si>
   <si>
     <t>organization (大林組 OR 大陽日酸 OR 大洋興業 OR 大洋塩ビ OR 大木建設 OR 大木 OR 大明 OR 大末建設 OR 大本組 OR 大豊工業 OR 大豊建設 OR 大宝運輸 OR 大平洋工業)</t>
   </si>
   <si>
-    <t>organization (大平洋金属 OR 大平工業 OR 大分銀行 OR 大八化学工業 OR 大日本木材防腐 OR 大日本塗料 OR 大日本住友製薬 OR 大日本紙業 OR 大日本印刷 OR 大日本コンサルタント OR 大日精化工業 OR 大日光・エンジニアリング OR 大同特殊鋼)</t>
-  </si>
-  <si>
     <t>organization (大同信号 OR 大同工業 OR 大同火災海上保険 OR 大同メタル工業 OR 大東紡織 OR 大東港運 OR 大東建託 OR 大東銀行 OR 大都魚類 OR 大電社 OR 大田花き OR 大塚製薬工場 OR 大塚食品)</t>
   </si>
   <si>
@@ -445,9 +364,6 @@
     <t>organization (太陽商会 OR 太陽工機 OR 太陽化学 OR 太洋物産 OR 太洋工業 OR 太洋興業 OR 太洋基礎工業 OR 太平洋工業 OR 太平洋興発 OR 太平洋海運 OR 太平洋セメント OR 太平電業 OR 太平製作所)</t>
   </si>
   <si>
-    <t>organization (太平エンジニアリング OR 多木化学 OR 多摩川電子 OR 多摩川ホールディングス OR 多摩信用金庫 OR 村田製作所 OR 村田機械 OR 村上開明堂 OR 損保ジャパン日本興亜アセットマネジメント OR 損保ジャパンひまわり生命保険 OR 損保ジャパン・アセットマネジメント OR 損害保険ジャパン OR 足利銀行)</t>
-  </si>
-  <si>
     <t>organization (蔵王産業 OR 増田製粉所 OR 綜合臨床ホールディングス OR 綜合警備保障 OR 綜研化学 OR 総和地所 OR 総合地所 OR 総合商研 OR 総合車両製作所 OR 総合医科学研究所 OR 総合メディカル OR 総医研ホールディングス OR 相模鉄道)</t>
   </si>
   <si>
@@ -478,9 +394,6 @@
     <t>organization (石井鉄工所 OR 石井食品 OR 石井工作研究所 OR 静甲 OR 静岡放送 OR 静岡鉄道 OR 静岡朝日テレビ OR 静岡中央銀行 OR 静岡第一テレビ OR 静岡銀行 OR 静岡トヨタ自動車 OR 静岡スバル自動車 OR 静岡ガス)</t>
   </si>
   <si>
-    <t>organization (青木あすなろ建設 OR 青森銀行 OR 青山商事 OR 青山財産ネットワークス OR 誠建設工業 OR 西洋フード・コンパスグループ OR 西友 OR 西野商事 OR 西部電気工業 OR 西部電機 OR 西部石油 OR 西部ガス OR 西武運輸)</t>
-  </si>
-  <si>
     <t>organization (西武ホールディングス OR 西菱電機 OR 西尾レントオール OR 西濃運輸 OR 西日本旅客鉄道 OR 西日本電線 OR 西日本鉄道 OR 西日本新聞社 OR 西日本高速道路 OR 西日本シティ銀行 OR 西川計測 OR 西川ゴム工業 OR 西新サービス)</t>
   </si>
   <si>
@@ -562,9 +475,6 @@
     <t>organization (鹿児島銀行 OR 自動車部品工業 OR 自然堂 OR 自重堂 OR 滋賀銀行 OR 時事通信社 OR 持田製薬工場 OR 持田製薬 OR 寺岡製作所 OR 児玉化学工業 OR 資生堂 OR 資産管理サービス信託銀行 OR 指月電機製作所)</t>
   </si>
   <si>
-    <t>organization (市田 OR 市進ホールディングス OR 市進 OR 市光工業 OR 四電工 OR 四国旅客鉄道 OR 四国電力 OR 四国銀行 OR 四国化成工業 OR 四国コカ・コーラボトリング OR 四国アルフレッサ OR 産業振興 OR 燦キャピタルマネージメント)</t>
-  </si>
-  <si>
     <t>organization (山和証券 OR 山梨中央銀行 OR 山陽百貨店 OR 山陽特殊製鋼 OR 山陽電気鉄道 OR 山陽新聞社 OR 山洋電気 OR 山洋工業 OR 山本化成 OR 山武 OR 山田債権回収管理総合事務所 OR 山大 OR 山善)</t>
   </si>
   <si>
@@ -583,39 +493,21 @@
     <t>organization (三菱総合研究所 OR 三菱総研DCS OR 三菱倉庫 OR 三菱製紙 OR 三菱製鋼 OR 三菱食品 OR 三菱証券 OR 三菱商事石油 OR 三菱商事ロジスティクス OR 三菱商事ユニメタルズ OR 三菱商事プラスチック OR 三菱商事フードテック OR 三菱商事ファッション)</t>
   </si>
   <si>
-    <t>organization (三菱商事パッケージング OR 三菱商事テクノス OR 三菱商事RtMジャパン OR 三菱商事・ユービーエス・リアルティ OR 三菱商事 OR 三菱重工業 OR 三菱樹脂 OR 三菱自動車 OR 三菱原子燃料 OR 三菱化工機 OR 三菱化学産資 OR 三菱化学ポリエステルフィルム OR 三菱化学)</t>
-  </si>
-  <si>
     <t>organization (三菱鉛筆 OR 三菱レイヨンエンジニアリング OR 三菱マテリアルテクノ OR 三菱マテリアル OR 三菱プレシジョン OR 三菱ケミカルホールディングス OR 三菱オートリース OR 三菱エンジニアリングプラスチックス OR 三菱ウェルファーマ OR 三菱アルミニウム OR 三菱UFJ不動産販売 OR 三菱UFJ投信 OR 三菱UFJ信託銀行)</t>
   </si>
   <si>
-    <t>organization (三菱UFJ証券ホールディングス OR 三菱UFJ証券 OR 三菱UFJリサーチ&amp;コンサルティング OR 三菱UFJリース OR 三菱UFJモルガン・スタンレー証券 OR 三菱UFJフィナンシャル・グループ OR 三菱UFJニコス OR 三菱UFJウェルスマネジメント証券 OR 三東工業社 OR 三谷商事 OR 三谷産業 OR 三谷セキサン OR 三相電機)</t>
-  </si>
-  <si>
     <t>organization (三星食品 OR 三信電気 OR 三信建設工業 OR 三条機械製作所 OR 三城ホールディングス OR 三城 OR 三重交通グループホールディングス OR 三重交通 OR 三重銀行 OR 三社電機製作所 OR 三桜工業 OR 三晃証券 OR 三晃空調)</t>
   </si>
   <si>
-    <t>organization (三晃金属工業 OR 三幸 OR 三光産業 OR 三光合成 OR 三光ソフランホールディングス OR 三光ソフラン OR 三交不動産 OR 三建設備工業 OR 三協立山 OR 三協フロンテア OR 三協・立山ホールディングス OR 三共理化学 OR 三共生興)</t>
-  </si>
-  <si>
-    <t>organization (三共 OR 三京化成 OR 三機工業 OR 三笠製薬 OR 三笠コカ・コーラボトリング OR 三越伊勢丹ホールディングス OR 三越伊勢丹 OR 三越 OR 三益半導体工業 OR 三栄コーポレーション OR 三浦工業 OR 三浦印刷 OR 三井物産プラントシステム)</t>
-  </si>
-  <si>
     <t>organization (三井物産プラスチック OR 三井物産ケミカル OR 三井物産 OR 三井不動産商業マネジメント OR 三井不動産レジデンシャル OR 三井不動産リアルティ OR 三井不動産ビルマネジメント OR 三井不動産 OR 三井農林 OR 三井造船 OR 三井倉庫 OR 三井石油開発 OR 三井石油)</t>
   </si>
   <si>
     <t>organization (三井製糖 OR 三井精機工業 OR 三井生命保険 OR 三井食品 OR 三井情報 OR 三井松島産業 OR 三井住友信託銀行 OR 三井住友建設 OR 三井住友銀行 OR 三井住友銀リース OR 三井住友銀オートリース OR 三井住友海上火災保険 OR 三井住友海上メットライフ生命保険)</t>
   </si>
   <si>
-    <t>organization (三井住友海上プライマリー生命保険 OR 三井住友海上きらめき生命保険 OR 三井住友海上あいおい生命保険 OR 三井住友フィナンシャルグループ OR 三井住友ファイナンス&amp;リース OR 三井住友トラスト不動産 OR 三井住友トラスト・ホールディングス OR 三井住友トラスト・パナソニックファイナンス OR 三井住友カード OR 三井住友アセットマネジメント OR 三井住商建材 OR 三井住建道路 OR 三井鉱山)</t>
-  </si>
-  <si>
     <t>organization (三井金属エンジニアリング OR 三井金属 OR 三井観光開発 OR 三井海洋開発 OR 三井化学東セロ OR 三井化学ポリウレタン OR 三井化学 OR 三井ホームコンポーネント OR 三井ホーム OR 三井ハイテック OR 三井デザインテック OR 三井ダイレクト損害保険 OR 三井アセット信託銀行)</t>
   </si>
   <si>
-    <t>organization (三井・デュポンフロロケミカル OR 三愛石油 OR 三愛 OR 三ッ輪運輸 OR 三ツ星ベルト OR 三ッ星 OR 雑貨屋ブルドッグ OR 札幌臨床検査センター OR 札幌北洋ホールディングス OR 札幌通運 OR 札幌証券取引所 OR 札幌銀行 OR 札幌テレビ放送)</t>
-  </si>
-  <si>
     <t>organization (桜島埠頭 OR 桜護謨 OR 桜井製作所 OR 埼玉県信用金庫 OR 堺化学工業 OR 阪和興業 OR 阪神百貨店 OR 阪神内燃機工業 OR 阪神電気鉄道 OR 阪神調剤薬局 OR 阪神高速道路 OR 阪神航空 OR 阪神交通社)</t>
   </si>
   <si>
@@ -661,9 +553,6 @@
     <t>organization (九九プラス OR 銀泉 OR 銀座ルノアール OR 金商 OR 金山証券 OR 金下建設 OR 近鉄不動産 OR 近鉄百貨店 OR 近鉄エクスプレス OR 近畿日本鉄道 OR 近畿日本ツーリスト個人旅行 OR 近畿日本ツーリスト OR 近畿大阪銀行)</t>
   </si>
   <si>
-    <t>organization (近畿車輌 OR 近畿コカ・コーラボトリング OR 玉井商船 OR 極洋 OR 極東貿易 OR 極東石油工業 OR 極東証券 OR 極東開発工業 OR 極楽湯 OR 暁飯島工業 OR 郷鉄工所 OR 興和紡績 OR 興和不動産)</t>
-  </si>
-  <si>
     <t>organization (興人 OR 興研 OR 興銀リース OR 橋本総業 OR 協和発酵バイオ OR 協和発酵ケミカル OR 協和発酵キリン OR 協和発酵 OR 協和日成 OR 協和医科器械 OR 協和医科ホールディングス OR 協和コンサルタンツ OR 協和エクシオ)</t>
   </si>
   <si>
@@ -736,12 +625,6 @@
     <t>organization (井上喜 OR 井住友銀行 OR 井関農機 OR 医学生物学研究所 OR 伊予鉄道 OR 伊予銀行 OR 伊豆箱根鉄道 OR 伊豆急行 OR 伊藤忠都市開発 OR 伊藤忠食糧 OR 伊藤忠食品 OR 伊藤忠商事 OR 伊藤忠飼料)</t>
   </si>
   <si>
-    <t>organization (伊藤忠建材 OR 伊藤忠丸紅鉄鋼 OR 伊藤忠ロジスティクス OR 伊藤忠テクノソリューションズ OR 伊藤忠テクノソリューション OR 伊藤忠エネクス OR 伊藤忠アーバンコミュニティ OR 伊藤忠・テクノソリューションズ OR 伊藤組土建 OR 伊藤園 OR 伊藤ハム OR 伊田テクノス OR 伊勢湾海運)</t>
-  </si>
-  <si>
-    <t>organization (伊勢丹 OR 伊勢化学工業 OR 杏林製薬 OR 安藤電気 OR 安藤証券 OR 安藤建設 OR 安藤・間 OR 安藤 OR 安田投信投資顧問 OR 安田倉庫 OR 安宅建材 OR 安川電機 OR 安川情報システム)</t>
-  </si>
-  <si>
     <t>organization (安楽亭 OR 安永 OR 栗田工業 OR 粟村製作所 OR 旭精機工業 OR 旭食品 OR 旭情報サービス OR 旭松食品 OR 旭化成建材 OR 旭化成ライフ&amp;リビング OR 旭化成メディカル OR 旭化成ホームズ OR 旭化成ファーマ)</t>
   </si>
   <si>
@@ -754,183 +637,63 @@
     <t>organization (愛知トヨタ自動車 OR 愛三工業 OR 愛光電気 OR 愛眼 OR 阿波製紙 OR 阿波銀行 OR 亜細亜証券印刷 OR ワンダーテーブル OR ワンダーコーポレーション OR わらべや日洋 OR ワットマン OR ワッツ OR ワタミ)</t>
   </si>
   <si>
-    <t>organization (ワタベウェディング OR ワシントンホテル OR ワコム OR ワコールホールディングス OR ワコール OR ワキタ OR わかもと製薬 OR ワオ・コーポレーション OR ワイヤレスゲート OR ワイズマン OR ワイズテーブルコーポレーション OR ワイス OR ワイエスフード)</t>
-  </si>
-  <si>
-    <t>organization (ワイエイシイ OR ワイ・イー・データ OR ワールドホールディングス OR ワールドインテック OR ワールド・ロジ OR ワールド OR ワークスアプリケーションズ OR ロンビック OR ロンシール工業 OR ロングライフホールディング OR ロプロ OR ロフト OR ロブテックス)</t>
-  </si>
-  <si>
-    <t>organization (ロッテリア OR ロッテ OR ロックペイント OR ロック・フィールド OR ロジネットジャパン OR ロジスティクス・ネットワーク OR ロジコム OR ローランドディージー OR ローランド OR ローヤル電機 OR ローム OR ローマイヤ OR ロート製薬)</t>
-  </si>
-  <si>
     <t>organization (ローツェ OR ローソンエンターメディア OR ローソンHMVエンタテイメント OR ローソン OR ロイヤルホテル OR ロイヤルホスト OR ロイヤルホールディングス OR ロイヤル OR レントラックジャパン OR レントオール OR レンゴー OR レリアン OR レナウン)</t>
   </si>
   <si>
-    <t>organization (レデイ薬局 OR レックス・ホールディングス OR レック OR レシップホールディングス OR レシップ OR レカム OR レオン自動機 OR レオパレス21 OR レオ OR レーサム OR レーザーテック OR レインズインターナショナル OR レイテックス)</t>
-  </si>
-  <si>
     <t>organization (レイコフ OR レイ OR レアジョブ OR ルネサンス OR ルネサス北日本セミコンダクタ OR ルネサス東日本セミコンダクタ OR ルネサスモバイル OR ルネサステクノロジ OR ルネサスシステムデザイン OR ルネサスエレクトロニクス販売 OR ルネサスエレクトロニクス OR ルネサスイーストン OR ルック)</t>
   </si>
   <si>
-    <t>organization (ルシアン OR ルーデン・ホールディングス OR リンナイ OR リンテック OR リンコーコーポレーション OR リンクアンドモチベーション OR リンク・ワン OR リンク・セオリー・ホールディングス OR りんかい日産建設 OR リンガーハットジャパン OR リンガーハット OR リロケーション・ジャパン OR リロクラブ)</t>
-  </si>
-  <si>
-    <t>organization (リリカラ OR リョービ OR リョーショクリカー OR リョーサン OR リベレステ OR リプラス OR リヒトラブ OR リバースチール OR リバーエレテック OR リニカル OR リテラ・クレア証券 OR リックス OR リックコーポレーション)</t>
-  </si>
-  <si>
-    <t>organization (りそな総合研究所 OR りそなホールディングス OR リソー教育 OR リゾートトラスト OR リズム時計工業 OR リサ・パートナーズ OR リコーリース OR リコープリンティングシステムズ OR リコーテクノシステムズ OR リコージャパン OR リコーエレメックス OR リコーインダストリー OR リコーインダストリアルソリューションズ)</t>
-  </si>
-  <si>
-    <t>organization (リコー OR リケン OR リクルートホールディングス OR リクルート OR リオン OR リオチェーンホールディングス OR リオチェーン OR リーファーライン OR リーバイ・ストラウスジャパン OR リード OR リーダー電子 OR リーガルコーポレーション OR リアルビジョン)</t>
-  </si>
-  <si>
-    <t>organization (リアルコム OR ランドビジネス OR ランドコム OR ランド OR ランテック OR ランシステム OR ラルズ OR ラピーヌ OR らでぃっしゅぼーや OR ラディアホールディングス OR ラッセル・インベストメント OR ラックランド OR ラックホールディングス)</t>
-  </si>
-  <si>
     <t>organization (ラック OR ラサ商事 OR ラサ工業 OR ラクオリア創薬 OR ラクーン OR ラオックス OR ラウンドワン OR ラヴィス OR ライフフーズ OR ライフネット生命保険 OR ライフステージ OR ライフコーポレーション OR ライフカード)</t>
   </si>
   <si>
-    <t>organization (ライフ OR ライト工業 OR ライトオン OR ライオン OR ラ・パルレ OR ラ・アトレ OR ヨンドシーホールディングス OR ヨンキュウ OR ヨロズ OR よみうりランド OR ヨネックス OR ヨネイ OR よつ葉乳業)</t>
-  </si>
-  <si>
-    <t>organization (ヨシタケ OR ヨシコン OR ヨコオ OR ヨータイ OR ヨークマート OR ヨークベニマル OR ユビキタスエナジー OR ユビキタス OR ユニリーバ・ジャパン・ホールディングス OR ユニリーバ・ジャパン・カスタマーマーケティング OR ユニリーバ・ジャパン OR ユニマットライフ OR ユニプレス)</t>
-  </si>
-  <si>
-    <t>organization (ユニバンス OR ユニパルス OR ユニバース OR ユニバーサル製缶 OR ユニバーサル園芸社 OR ユニバーサルミュージック OR ユニバーサルホーム OR ユニバーサルエンターテインメント OR ユニデン OR ユニチカ OR ユニダックス OR ユニコムグループホールディングス OR ユニコ・コーポレーション)</t>
-  </si>
-  <si>
-    <t>organization (ユニクロ OR ユニキャリアホールディングス OR ユニキャリア OR ユニカフェ OR ユニオンホールディングス OR ユニオンペイント OR ユニオンツール OR ユニーグループ・ホールディングス OR ユニー OR ユニアデックス OR ユニ・チャームペットケア OR ユニ・チャーム OR ユナイテッドアローズ)</t>
-  </si>
-  <si>
     <t>organization (ユナイテッド OR ユタカ技研 OR ユタカフーズ OR ユシロ化学工業 OR ユーラシア旅行社 OR ゆうちょ銀行 OR ユーストア OR ユージン OR ユーシン OR ユーシービージャパン OR ユーシーカード OR ユーグレナ OR ユークス)</t>
   </si>
   <si>
-    <t>organization (ユーエスシー OR ユー・エス・ジェイ OR ユー・エス・エス OR ユアテック OR ユアサ商事 OR ユアサ・フナショク OR ヤンマー農機 OR ヤンマーホールディングス OR ヤンセンファーマ OR やまや OR やまびこ OR ヤマハ発動機 OR ヤマハミュージックエンタテインメントホールディングス)</t>
-  </si>
-  <si>
-    <t>organization (ヤマハ OR ヤマノホールディングス OR やまねメディカル OR ヤマナカ OR ヤマト硝子 OR ヤマト運輸 OR ヤマトマテリアル OR ヤマトホールディングス OR ヤマト・インダストリー OR ヤマト OR ヤマックス OR ヤマダ電機 OR ヤマタネ)</t>
-  </si>
-  <si>
     <t>organization (ヤマダコーポレーション OR ヤマシナ OR ヤマサ醤油 OR ヤマザワ OR ヤマザキ OR ヤマキ OR ヤマエ久野 OR ヤマウラ OR ヤマウ OR ヤフー OR ヤナセ OR やすらぎ OR ヤスハラケミカル)</t>
   </si>
   <si>
-    <t>organization (ヤクルト本社 OR ヤギコーポレーション OR ヤギ OR ヤガミ OR ヤオコー OR ヤーマン OR モンテカルロ OR モロゾフ OR モルフォ OR モルテン OR モルガン・スタンレーMUFG証券 OR モルガン・スタンレー・インベストメント・マネジメント OR モルガン・スタンレー・アセット・マネジメント投信)</t>
-  </si>
-  <si>
     <t>organization (モリ工業 OR モリリン OR モリモト OR モリト OR モリテックスチール OR モリテックス OR モリタホールディングス OR モリタ OR モリシタ OR もみじ銀行 OR もみじホールディングス OR モブキャスト OR モック)</t>
   </si>
   <si>
-    <t>organization (モスフードサービス OR モスインスティテュート OR モジュレ OR もしもしホットライン OR モーニングスター OR メンバーズ OR メルテックス OR メルシャン OR メルコホールディングス OR メリルリンチ日本証券 OR メモレックス・テレックス OR メフォス OR メビックス)</t>
-  </si>
-  <si>
-    <t>organization (メドレックス OR メドピア OR メディビックグループ OR メディビック OR メディパルホールディングス OR メディネット OR メディセオ OR メディサイエンスプラニング OR メディケア生命保険 OR メディキット OR メディカル一光 OR メディカルシステムネットワーク OR メディカル・ケア・サービス)</t>
-  </si>
-  <si>
     <t>organization (メディア工房 OR メディアフラッグ OR メディアファイブ OR メディアスホールディングス OR メディアシーク OR メディアグローバルリンクス OR メディアクリエイト OR メットライフ生命保険 OR メッツ OR メッセージ OR メッサ OR メック OR メタルワン)</t>
   </si>
   <si>
     <t>organization (メタルアート OR メタウォーター OR メガブレーン OR メガネトップ OR メガネスーパー OR メガチップス OR メイテック OR メイコー OR ムラチク OR ムラキ OR ムトー精工 OR ムトウ OR むさし証券)</t>
   </si>
   <si>
-    <t>organization (ムサシ OR ムーンバット OR ムーンスター OR ミントウェーブ OR ミロク情報サービス OR ミロク OR ミレニアムリテイリング OR みらかホールディングス OR みらい建設工業 OR ミライト・ホールディングス OR ミライト・テクノロジーズ OR ミライト OR ミライアル)</t>
-  </si>
-  <si>
-    <t>organization (ミヨタ OR ミヨシ油脂 OR ミューチュアル OR ミヤチテクノス OR ミヤコ OR ミマキエンジニアリング OR ミホウジャパン OR ミネルヴァ・ホールディングス OR ミネベアモータ OR ミネベア OR ミニストップ OR みなと銀行 OR ミツミ電機)</t>
-  </si>
-  <si>
     <t>organization (ミツバ OR ミツトヨ OR ミツウロコグループホールディングス OR ミツウロコ OR ミツイワ OR みちのく銀行 OR ミタチ産業 OR ミスミグループ本社 OR ミスミ OR みずほ投信投資顧問 OR みずほ総合研究所 OR みずほ信託銀行 OR みずほ情報総研)</t>
   </si>
   <si>
     <t>organization (みずほ証券 OR みずほ銀行 OR みずほホールディングス OR みずほフィナンシャルグループ OR みずほインベスターズ証券 OR ミズノ OR ミサワリゾート OR ミサワホーム北日本 OR ミサワホーム北海道 OR ミサワホーム東京 OR ミサワホーム東海 OR ミサワホーム中国 OR ミサワホーム九州)</t>
   </si>
   <si>
-    <t>organization (ミサワホーム OR ミサワ OR ミクロン精密 OR ミクニ OR ミクシィ OR ミキモト OR ミカレディ OR マンパワーグループ OR マンパワー・ジャパン OR まんだらけ OR マンダム OR マン・インベストメンツ証券 OR 丸大食品)</t>
-  </si>
-  <si>
     <t>organization (マルヨシセンター OR マルヤス工業 OR マルヤ OR マルミヤストア OR マルマン OR マルマエ OR マルハニチロ水産 OR マルハニチロ食品 OR マルハニチロホールディングス OR マルハニチロ OR マルハ OR マルナカ OR マルタイ)</t>
   </si>
   <si>
     <t>organization (マルゼン OR マルシェ OR マルサンアイ OR マルコ OR マルキン忠勇 OR マルキョウ OR マルエツ OR マルイチ産商 OR マリンポリス OR マミーマート OR マブチモーター OR マネックス証券 OR マネーパートナーズグループ)</t>
   </si>
   <si>
-    <t>organization (マネーパートナーズ OR マネースクウェア・ジャパン OR マニー OR マツヤ OR マツモトキヨシ九州販売 OR マツモトキヨシホールディングス OR マツモトキヨシ OR マツモト OR マツダオートリース OR マツダ OR マックハウス OR マックスバリュ北海道 OR マックスバリュ東北)</t>
-  </si>
-  <si>
     <t>organization (マックスバリュ東海 OR マックスバリュ中部 OR マックスバリュ西日本 OR マックスバリュ九州 OR マックス OR マッグガーデン OR マッキャンエリクソン OR マスミューチュアル生命保険 OR マスプロ電工 OR マクロミル OR マクニカ OR マキ製作所 OR マキヤ)</t>
   </si>
   <si>
-    <t>organization (マキタ OR マガシーク OR マイスターエンジニアリング OR マイクロソフト OR マーチャント・バンカーズ OR マースエンジニアリング OR マークテック OR ホンダクリオ東葛 OR ホンダ OR ホロン OR ボルテージ OR ホリプロ OR ポリプラスチックス)</t>
-  </si>
-  <si>
     <t>organization (ホリイフードサービス OR ポラテック OR ポラテクノ OR ポプラ OR ホテル京急 OR ホテルニューグランド OR ホテルオークラ東京 OR ホテルオークラ OR ホテイフーズコーポレーション OR ボッシュ OR ホッコク OR ホッカンホールディングス OR ポッカサッポロフード&amp;ビバレッジ)</t>
   </si>
   <si>
-    <t>organization (ポッカコーポレーション OR ホソカワミクロン OR ホシデン OR ホシザキ電機 OR ポケットカード OR ほくやく・竹山ホールディングス OR ほくやく OR ほくほくフィナンシャルグループ OR ホクト OR ホクシン OR ホギメディカル OR ポーラ化成工業 OR ポーラ・オルビスホールディングス)</t>
-  </si>
-  <si>
     <t>organization (ポーラ OR ホーユー OR ホープ OR ホーブ OR ホーチキ OR ボーダフォン OR ボーソー油脂 OR ホウライ OR ホウトク OR ホウスイ OR ポイント OR ぺんてる OR ベンチャーリパブリック)</t>
   </si>
   <si>
-    <t>organization (ペンタックス OR ベルパーク OR ベルテクノ OR ベルックス OR ベルシステム24 OR ベルグアース OR ベルーナ OR ベリトランス OR ベリテ OR ベリサーブ OR ヘリオステクノホールディング OR ベネフィット・ワン OR ベネッセホールディングス)</t>
-  </si>
-  <si>
     <t>organization (ベネッセスタイルケア OR ベネッセコーポレーション OR ペッパーフードサービス OR ベスト電器 OR ベストブライダル OR ベクトル OR ベクター OR ペガサスミシン製造 OR ベーリンガーインゲルハイムジャパン OR ベイシア OR ベアリング投信投資顧問 OR ブロンコビリー OR プロルート丸光)</t>
   </si>
   <si>
-    <t>organization (プロミス OR プロパスト OR プロネクサス OR プロトコーポレーション OR プロデュース OR ブロッコリー OR プロダクション・アイジー OR プロシップ OR プロジェ・ホールディングス OR ブロードリーフ OR ブロードメディア OR ブロードバンドタワー OR フロイント産業)</t>
-  </si>
-  <si>
-    <t>organization (フレンドリー OR フレンテ OR プレナス OR プレック研究所 OR プレス工業 OR プレステージ・インターナショナル OR プレシジョン・システム・サイエンス OR プレサンスコーポレーション OR フレームワークス OR ブレインパッド OR 古野電気 OR フルヤ金属 OR ブルボン)</t>
-  </si>
-  <si>
-    <t>organization (ブルドックソース OR プルデンシャル生命保険 OR プルデンシャルジブラルタファイナンシャル生命保険 OR プルデンシャル・ホールディング・オブ・ジャパン OR プルデンシャル・インベストメント・マネジメント・ジャパン OR フルスピード OR フルサト工業 OR フルキャストホールディングス OR フルキャスト OR プリマハム OR ブリヂストンスポーツ OR ブリヂストンサイクル OR ブリヂストンケミテック)</t>
-  </si>
-  <si>
-    <t>organization (ブリヂストン OR ブリストル・マイヤーズスクイブ OR ブリストル・マイヤーズ OR フリード OR フリージア・マクロス OR フランスベッドホールディングス OR フランスベッド OR プラマテルズ OR プラネックスホールディング OR プラネックスコミュニケーションズ OR プラップジャパン OR ぷらっとホーム OR ブラックロック・ジャパン)</t>
-  </si>
-  <si>
-    <t>organization (プラス・テク OR プラス OR プラザクリエイト OR ブラザー工業 OR プラコー OR フラクタリスト OR フライングガーデン OR プライムワークス OR プライムポリマー OR プライムシステム OR プライムアースEVエナジー OR プライム・リンク OR プライム)</t>
-  </si>
-  <si>
     <t>organization (フライトシステムコンサルティング OR プライスウォーターハウスクーパース OR フュートレック OR フューチャーベンチャーキャピタル OR フューチャーアーキテクト OR フュージョンパートナー OR フマキラー OR ブックオフコーポレーション OR フタムラ化学 OR フタバ産業 OR フジ日本精糖 OR フジ住宅 OR フジモトホールディングス)</t>
   </si>
   <si>
     <t>organization (フジモトHD OR フジミインコーポレーテッド OR フジマック OR フジプレアム OR フジトミ OR フジテレビジョン OR フジテック OR フジッコ OR フジックス OR フジタコーポレーション OR フジタ OR フジシールインターナショナル OR フジシール)</t>
   </si>
   <si>
-    <t>organization (フジコピアン OR フジコー OR フジクラ電装 OR フジクラ OR フジオフードシステム OR フジオーゼックス OR フジ・メディア・ホールディングス OR フジ・ダイレクト・マーケティング OR フジ OR ふじ OR フコクしんらい生命保険 OR フコク OR フクビ化学工業)</t>
-  </si>
-  <si>
-    <t>organization (フクダ電子 OR フクシマフーズ OR ふくおか証券 OR ふくおかフィナンシャルグループ OR フォンテーヌ OR フォルクスワーゲングループジャパン OR フォトロン OR フォトクリエイト OR フォスター電機 OR フォーバルテレコム OR フォーバル OR フォーカスシステムズ OR フォー・ユー)</t>
-  </si>
-  <si>
     <t>organization (フェローテック OR フェリシモ OR フェニックス電機 OR フェヴリナホールディングス OR フェヴリナ OR フェイス OR フーマイスターエレクトロニクス OR フージャースホールディングス OR フージャースコーポレーション OR フィンテックグローバル OR フィデリティ投信 OR フィデック OR フィデアホールディングス)</t>
   </si>
   <si>
-    <t>organization (フィックスターズ OR フィスコ OR フィールズ OR フィード・ワンホールディングス OR ブイ・テクノロジー OR ファンドクリエーショングループ OR ファンダンゴ OR ファンコミュニケーションズ OR ファンケル OR ファルテック OR ファルコホールディングス OR ファルコバイオシステムズ OR ファルコSDホールディングス)</t>
-  </si>
-  <si>
-    <t>organization (ファミリーマート OR ファミリー OR ファブリカトヤマ OR ファナック OR ファステップス OR ファインシンター OR ファイナンス・オール OR ファイ OR ファーマライズホールディングス OR ファーマライズ OR ファーマホールディング OR ファーマフーズ OR ファースト住建)</t>
-  </si>
-  <si>
-    <t>organization (ファーストリテイリング OR ファーストエスコ OR びわ湖放送 OR びわこ銀行 OR ヒロセ電機 OR ビリングシステム OR ひらまつ OR ヒラノテクシード OR ヒラタ OR ヒラキ OR ヒューリック OR ヒューマンホールディングス OR ヒューマン・メタボローム・テクノロジーズ)</t>
-  </si>
-  <si>
-    <t>organization (ヒューネット OR ヒューテック OR ビューティ花壇 OR ビューカンパニー OR ひまわりホールディングス OR ひまわりインベストメント OR ヒマラヤ OR ヒビノ OR ヒト・コミュニケーションズ OR ビデオリサーチ OR ピップトウキョウ OR ピップ OR ヒップ)</t>
-  </si>
-  <si>
-    <t>organization (ビットアイル OR ピックルスコーポレーション OR ビックカメラ OR 日立オートモティブシステムズ OR ビズネット OR ビスケーホールディングス OR ピジョン OR ビジョン OR ビジネスブレイン太田昭和 OR ビジネス・ワンホールディングス OR ビジネス・ワン OR ビジネス・ブレークスルー OR ビケンテクノ)</t>
-  </si>
-  <si>
-    <t>organization (ピクテ投信投資顧問 OR ピクセラ OR ヒガシマル OR ヒガシトゥエンティワン OR ピエトロ OR ビーマップ OR ピープル OR ビービーネット OR ビーピー・カストロール OR ヒーハイスト精工 OR ピーシー橋梁 OR ピーシーデポコーポレーション OR ピーシーエー生命保険)</t>
-  </si>
-  <si>
-    <t>organization (ピーシーエー・アセット・マネジメント OR ピーエス三菱 OR ビーエスピー OR ビーエスエル OR ピーエイ OR ビーイング OR ピーアンドピー OR ビーアールホールディングス OR ピー・シー・エー OR ビー・エム・ダブリュー OR ビー・エム・エル OR ビー・エヌ・ピー・パリバ銀行 OR ぴあ)</t>
-  </si>
-  <si>
-    <t>organization (バンプレスト OR バンドー化学 OR パンテック OR バンテック OR バンダイロジパル OR バンダイビジュアル OR バンダイネットワークス OR バンダイ OR ハンズマン OR バンクテック・ジャパン OR バンク・オブ・アメリカ・エヌ・エイ OR パワードコム OR パロマ)</t>
-  </si>
-  <si>
     <t>organization (ハローズ OR バロー OR パレモ OR パレスホテル OR はるやま商事 OR パルテック OR ハルテック OR パルステック工業 OR バルス OR パルコ OR バルクホールディングス OR バルク OR パル)</t>
   </si>
   <si>
@@ -949,96 +712,39 @@
     <t>organization (ハウス食品グループ本社 OR ハウス食品 OR ハウスフリーダム OR ハウステックホールディングス OR ハウステック OR ハウスコム OR ハウスオブローゼ OR ハウスウェルネスフーズ OR パイロットコーポレーション OR ハイレックスコーポレーション OR ハイマックス OR パイプドビッツ OR ハイビック)</t>
   </si>
   <si>
-    <t>organization (ハイパー OR バイテック OR ハイデイ日高 OR バイタルネット OR バイタルケーエスケー・ホールディングス OR バイク王&amp;カンパニー OR パイオン OR パイオラックス OR パイオニア OR バイエル薬品 OR バイエルホールディング OR バイエルクロップサイエンス OR ハーモニック・ドライブ・システムズ)</t>
-  </si>
-  <si>
     <t>organization (ハーバー研究所 OR ハートフォード生命保険 OR ハードオフコーポレーション OR バーテックスリンク OR バーテックススタンダード OR ハーゲンダッツジャパン OR バークレイズ証券 OR ハークスレイ OR パーカーコーポレーション OR ノリタケカンパニーリミテド OR ノボノルディスクファーマ OR ノバレーゼ OR ノバルティスホールディングジャパン)</t>
   </si>
   <si>
-    <t>organization (ノバルティスファーマ OR ノダ OR のぞみ証券 OR ノジマ OR ノザワ OR ノーリツ OR ノース OR ノーザン・トラスト・グローバル・インベストメンツ OR ノエル OR ノエビアホールディングス OR ノエビア OR ノア OR ネポン)</t>
-  </si>
-  <si>
     <t>organization (ネツレン OR ネットワンシステムズ OR ネットワークバリューコンポネンツ OR ネットマークス OR ネットプライスドットコム OR ネットプライス OR ネットウィング証券 OR ネットイヤーグループ OR ネスレ日本 OR ネクソン OR ネクストジャパンホールディングス OR ネクストジェン OR ネクストコム)</t>
   </si>
   <si>
-    <t>organization (ネクストウェア OR ネクスト OR ネクステック OR ネクシィーズ OR ネクサス OR ネオス OR ネオアクシス OR にんべん OR ニレコ OR ニューヨークメロン信託銀行 OR ニューヨークメロン銀行 OR ニューフレアテクノロジー OR ニュートン・フィナンシャル・コンサルティング)</t>
-  </si>
-  <si>
     <t>organization (ニユートーキヨー OR ニュートーキヨー OR ニューテック OR ニューディール OR ニュース証券 OR ニヤクコーポレーション OR ニホンフラッシュ OR ニプロ OR ニフティ OR ニトリ OR ニッポン放送 OR ニッポン高度紙工業 OR ニッピ)</t>
   </si>
   <si>
-    <t>organization (ニッパンレンタル OR ニッパン OR ニッパツ OR ニッチツ OR ニッタン OR ニッタ OR ニッセンホールディングス OR ニッセン OR ニッセイ同和損害保険 OR ニッセイ情報テクノロジー OR ニッセイアセットマネジメント OR ニッセイ・リース OR ニッセイ)</t>
-  </si>
-  <si>
     <t>organization (ニッシン OR ニッコー OR ニッコウトラベル OR ニッケ OR ニックス OR ニッキ OR ニッカトー OR ニッカウヰスキー OR 日立国際電気 OR 日東電工 OR ニチロ OR ニチレキ OR ニチレイロジグループ本社)</t>
   </si>
   <si>
     <t>organization (ニチレイフレッシュ OR ニチレイフーズ OR ニチレイ OR ニチリン OR ニチリョク OR ニチユ三菱フォークリフト OR ニチユ OR ニチモウ OR ニチモ OR ニチバン OR ニチハマテックス OR ニチハ OR ニチダイ)</t>
   </si>
   <si>
-    <t>organization (ニチゾウテック OR ニチイ学館 OR ニチアス OR ニコン OR ニイタカ OR ニイウスコー OR ニイウス OR ナンシン OR ナルミヤ・インターナショナル OR ナラサキ産業 OR ナムコ OR ナブテスコ OR ナブコドア)</t>
-  </si>
-  <si>
     <t>organization (ナフコ OR ナビタス OR ナノテックス OR ナノキャリア OR なとり OR ナトコ OR ナック OR ナチュラム OR ナゴヤキャッスル OR なか卯 OR ナカヨ通信機 OR 中山製鋼所 OR ナガホリ)</t>
   </si>
   <si>
-    <t>organization (ナカボーテック OR ナカバヤシ OR ながの東急百貨店 OR ナカノフドー建設 OR ナカニシ OR ナガセ OR ナガイレーベン OR ナカイ OR ナイスクラップ OR ナイス OR ナイガイ OR ナ・デックス OR ドンキホーテホールディングス)</t>
-  </si>
-  <si>
-    <t>organization (ドン・キホーテ OR どん OR ドワンゴ OR トレンドマイクロ OR トレンダーズ OR ドレスナー・クラインオート証券 OR トレーディア OR トレイダーズ証券 OR トレイダーズホールディングス OR トリニティ工業 OR トリドール OR ドリコム OR トリケミカル研究所)</t>
-  </si>
-  <si>
-    <t>organization (ドリームテクノロジーズ OR ドリームインキュベータ OR ドリーム・トレイン・インターネット OR トランスデジタル OR トランスコスモス OR トランザクション OR トランコム OR トラベラー OR トラストワークス OR トラストホールディングス OR トラストパーク OR トラスト・テック OR トラスト)</t>
-  </si>
-  <si>
     <t>organization (トラステックスホールディングス OR トラスコ中山 OR トライステージ OR トライアイズ OR トヨタ紡織 OR トヨタ車体 OR トヨタ自動車東日本 OR トヨタ自動車 OR トヨタホーム OR トヨタファイナンス OR トヨタファイナンシャルサービス OR トヨタカローラ岐阜 OR トヨタアセットマネジメント)</t>
   </si>
   <si>
-    <t>organization (トモニホールディングス OR トモズ OR トムス・エンタテインメント OR トミヤアパレル OR トミタ電機 OR トミタ OR ドミー OR トミー OR トマト銀行 OR トプコン OR トピー工業 OR トナミ運輸 OR トナミホールディングス)</t>
-  </si>
-  <si>
-    <t>organization (ドトールコーヒー OR ドトール・日レスホールディングス OR トップカルチャー OR トッパン・フォームズ OR トッパン・コスモ OR ドッドウエルビー・エム・エス OR トッキ OR トスネット OR トステム鈴木シャッター OR トスコ OR トシン電機 OR トシン・グループ OR ドコモ・システムズ)</t>
-  </si>
-  <si>
     <t>organization (トクヤマ OR ドクターシーラボ OR トキメック OR トキハ OR トキコ OR ドーン OR トーヨーコーケン OR トーヨーケム OR トーヨーカラー OR トーヨーカネツ OR トーヨーアサノ OR トーモク OR トーメンデバイス)</t>
   </si>
   <si>
-    <t>organization (トーメンエレクトロニクス OR トーメン OR トーホーフードサービス OR トーホー OR トープラ OR トーハン OR トータルハウジング OR トータル・メディカルサービス OR トーソー OR トーセイ OR トーセ OR トーシン OR トーカン)</t>
-  </si>
-  <si>
     <t>organization (トーカロ OR トオカツフーズ OR トーカイ OR トーエル OR トーエネック OR トーイン OR トーア紡コーポレーション OR トーア再保険 OR トーアミ OR トウペ OR ドウシシャ OR トウアバルブグループ本社 OR ドイツ証券)</t>
   </si>
   <si>
-    <t>organization (ドイツ銀行 OR ドイチェ・アセット・マネジメント OR デンヨー OR テンポスバスターズ OR テンプホールディングス OR テンプスタッフ OR デンソー OR テンコーポレーション OR デンカ生研 OR テンアライド OR テン・アローズ OR テレビ北海道 OR テレビ東京ホールディングス)</t>
-  </si>
-  <si>
     <t>organization (テレビ東京コミュニケーションズ OR テレビ東京 OR テレビ朝日ホールディングス OR テレビ朝日 OR テレビ大分 OR テレビ大阪 OR テレビ静岡 OR テレビ西日本 OR テレビ神奈川 OR テレビ新広島 OR テレビ埼玉 OR テレビ熊本 OR テレビ愛知)</t>
   </si>
   <si>
     <t>organization (テレビせとうち OR テレウェイヴ OR テルモ OR テリロジー OR デリカフーズ OR テラボウ OR テラプローブ OR テラ OR デュオシステムズ OR テノックス OR デニーズジャパン OR テトラ OR テックファーム)</t>
   </si>
   <si>
-    <t>organization (テセック OR テスコ OR テスク OR デジタルハーツ OR デジタルデザイン OR デジタルスケープ OR デジタルガレージ OR デジタルアドベンチャー OR デジタルアーツ OR デジタル・アドバタイジング・コンソーシアム OR デジタル OR デサント OR デザインエクスチェンジ)</t>
-  </si>
-  <si>
-    <t>organization (テクモ OR テクマトリックス OR テクノ菱和 OR テクノメディカ OR テクノマセマティカル OR テクノホライゾン・ホールディングス OR テクノスマート OR テクノスジャパン OR テクノエイト OR テクノアルファ OR テクノアソシエ OR テクノ・セブン OR テクニカル電子)</t>
-  </si>
-  <si>
-    <t>organization (デオデオ OR テーブルマークホールディングス OR テーブルマーク OR データリンクス OR データホライゾン OR データプレイス OR データ・アプリケーション OR テーオー小笠原 OR テーオーシー OR テー・オー・ダブリュー OR デウエスタン・セラピテクス研究所 OR テイン OR デイリースポーツ社)</t>
-  </si>
-  <si>
-    <t>organization (ティラド OR ティムコ OR デイトナ OR ティップネス OR ディップ OR ディックスクロキ OR テイツー OR ディスコ OR ディジタルメディアプロフェッショナル OR テイクアンドギヴ・ニーズ OR テイカ OR ディーワンダーランド OR ティーライフ)</t>
-  </si>
-  <si>
-    <t>organization (ディーブイエックス OR ディーバ OR ディースリー・パブリッシャー OR ディースリー OR ティーガイア OR ディーエムエス OR ディーアンドエムホールディングス OR ティー・ワイ・オー OR ディー・ディー・エス OR ティー・シー・シー OR ディー・エヌ・エー OR ティアック OR ディア・ライフ)</t>
-  </si>
-  <si>
-    <t>organization (ティア OR デイ・シイ OR テイ・エステック OR デ・ウエスタン・セラピテクス研究所 OR ツルハホールディングス OR ツルハ OR ツルカメコーポレーション OR ツムラ OR ツバキ・ナカシマ OR ツノダ OR ツネイシホールディングス OR ツツミ OR ツクイ)</t>
-  </si>
-  <si>
-    <t>organization (ツカモトコーポレーション OR ツガミ OR ツーカーセルラー東京 OR ツヴァイ OR ツインバード工業 OR チヨダウーテ OR チヨダ OR 中央物産 OR 中央製作所 OR 中央自動車工業 OR 中央魚類 OR チャコット OR チャーム・ケア・コーポレーション)</t>
-  </si>
-  <si>
     <t>organization (チムニー OR チノー OR チップワンストップ OR チッソ OR チタン工業 OR チェルト OR ダンロップスポーツ OR ダントーホールディングス OR ダントー OR タンガロイ OR ダン OR タワーレコード OR ダルトン)</t>
   </si>
   <si>
@@ -1051,9 +757,6 @@
     <t>organization (タカラトミーアーツ OR タカラトミー OR タカラスタンダード OR タカラ OR タカノ OR タカトリ OR タカチホ OR タカタ OR タカセ OR タカショー OR タカキュー OR タカキタ OR タカギセイコー)</t>
   </si>
   <si>
-    <t>organization (タウンニュース社 OR ダヴィンチ・ホールディングス OR ダウ・ケミカル日本 OR ダイワボウホールディングス OR ダイワボウ OR ダイワハウス・リニュー OR ダイワサービス OR タイヨー OR ダイユーエイト OR ダイヤ通商 OR ダイヤモンド電機 OR ダイヤモンド工業 OR ダイヤモンドテレコム)</t>
-  </si>
-  <si>
     <t>organization (ダイヤモンドダイニング OR ダイヤニトリックス OR タイムズ24 OR タイホー工業 OR タイホーコーザイ OR ダイヘン OR ダイベア OR ダイフク OR ダイビル OR ダイハツ工業 OR ダイハツディーゼル OR ダイニック OR ダイニチ工業)</t>
   </si>
   <si>
@@ -1066,171 +769,36 @@
     <t>organization (ダイキン工業 OR ダイキョーニシカワ OR ダイキサウンド OR ダイキアクシス OR ダイキ OR タイガースポリマー OR ダイオ化成 OR ダイオーズ OR ダイエー OR ダイイチ OR ダイア建設 OR そんぽ24損害保険 OR ソレキア)</t>
   </si>
   <si>
-    <t>organization (ソルコム OR ソルクシーズ OR ソリトンシステムズ OR ソラン OR ソマール OR ソフマップ OR ソフトマックス OR ソフトブレーン OR ソフトバンクモバイル OR ソフトバンクテレコム OR ソフトバンクコマース＆サービス OR ソフトバンクBB OR ソフトバンク・テクノロジー)</t>
-  </si>
-  <si>
-    <t>organization (ソフトバンク OR ソフトクリエイトホールディングス OR ソフトクリエイト OR ソフトウェア・サービス OR ソフト99コーポレーション OR ソフィアホールディングス OR ソフィアシステムズ OR ソノコム OR ソネットエンタテインメント OR ソネット OR ソネック OR ソニーライフ・エイゴン生命保険 OR ソニーファイナンスインターナショナル)</t>
-  </si>
-  <si>
-    <t>organization (ソニービジネスソリューション OR ソニーグローバルソリューションズ OR ソニー・ミュージックエンタテインメント OR ソニー・コンピュータエンタテインメント OR ソニー OR ソトー OR ソディックハイテック OR ソディック OR ソシエテジェネラル証券 OR ソシエテジェネラル銀行 OR そごう・西武 OR そごう OR ソケッツ)</t>
-  </si>
-  <si>
-    <t>organization (ソキア・トプコン OR ソキア OR ソーラーフロンティア OR ソーバル OR ソーテック OR ソーダニッカ OR そーせいグループ OR そーせい OR ソースネクスト OR ゼンリン OR セントラル短資 OR セントラル総合開発 OR セントラル硝子)</t>
-  </si>
-  <si>
-    <t>organization (セントラルユニ OR セントラルファイナンス OR セントラルスポーツ OR セントラルサービスシステム OR セントケア・ホールディング OR セントケア OR ゼンテック・テクノロジー・ジャパン OR センチュリー21・ジャパン OR ゼンショーホールディングス OR ゼンショー OR センコン物流 OR センコー OR ゼンケンホールディングス)</t>
-  </si>
-  <si>
-    <t>organization (ゼロ OR セレブリックス OR セレスポ OR セルシス OR ゼリア新薬工業 OR セリア OR セラーテムテクノロジー OR セメダイン OR セブン工業 OR セブン銀行 OR セブンーイレブン・ジャパン OR セブンシーズホールディングス OR セブンCSカードサービス)</t>
-  </si>
-  <si>
-    <t>organization (セブン・フィナンシャルサービス OR セブン・カードサービス OR セブン&amp;アイ・ホールディングス OR セブン&amp;アイ・フードシステムズ OR セフテック OR セプテーニ・ホールディングス OR セプテーニ OR ゼファーマ OR ゼファー OR ゼビオ OR ゼネラルパッカー OR ゼネラル OR ゼニス羽田)</t>
-  </si>
-  <si>
     <t>organization (セディナ OR ゼットン OR ゼット OR セック OR セタ OR セゾン自動車火災保険 OR セシール OR セコム損害保険 OR セコム上信越 OR セコムテクノサービス OR セコム OR セコニックホールディングス OR セコニック)</t>
   </si>
   <si>
-    <t>organization (ゼクス OR ゼクー OR 積和不動産中部 OR セキュアヴェイル OR セキュアード・キャピタル・ジャパン OR セキテクノトロン OR セキチュー OR セキスイハイム不動産 OR セキスイハイム東北 OR セキスイハイム九州 OR セキ OR セカンドストリート OR セガ)</t>
-  </si>
-  <si>
     <t>organization (セーレン OR セーラー万年筆 OR セーラー広告 OR 西武鉄道 OR セイヒョー OR セイノーホールディングス OR セイジョー OR セイサ OR セイコープレシジョン OR セイコーソリューションズ OR セイコーエプソン OR セイコーウオッチ OR セイコーインスツル)</t>
   </si>
   <si>
-    <t>organization (セイコー OR セイクレスト OR ゼィープラス OR スルガ銀行 OR スルガコーポレーション OR スルガ OR スリーボンド OR スリープログループ OR スリープロ OR スリーエムジャパン OR スリーエフ OR スリー・ディー・マトリックス OR すみや)</t>
-  </si>
-  <si>
-    <t>organization (スミテックス・インターナショナル OR スミダコーポレーション OR スミセイ情報システム OR スペースシャワーネットワーク OR スペース OR スパンクリートコーポレーション OR スバル興業 OR スパイア OR ストリーム OR ストライダーズ OR ステラケミファ OR ステップ OR すてきナイスグループ)</t>
-  </si>
-  <si>
-    <t>organization (ステート・ストリート信託銀行 OR スタンレー電気 OR スタジオアリス OR スタイライフ OR スター精密 OR スターホールディングス OR スターフライヤー OR スターバックスコーヒージャパン OR スタートトゥデイ OR スターティア OR スターツ出版 OR スターツコーポレーション OR スターツ)</t>
-  </si>
-  <si>
-    <t>organization (スターゼン OR スターキャット・ケーブルネットワーク OR スター・マイカ OR スズケン OR スズキ OR スクロール OR スクウェア・エニックス・ホールディングス OR スクウェア・エニックス OR スギ薬局 OR スカパーJSATホールディングス OR スカパーJSAT OR スガテック OR スガイ化学工業)</t>
-  </si>
-  <si>
-    <t>organization (すかいらーく OR スカイマーク OR スカイネットアジア航空 OR スーパー大栄 OR スーパーバリュー OR スーパーバッグ OR スーパーツール OR シンワオックス OR シンワアートオークション OR シンワ OR シンポ OR シンプレクス・ホールディングス OR シンプレクス・インベストメント・アドバイザーズ)</t>
-  </si>
-  <si>
-    <t>organization (シンフォニアテクノロジー OR シンバイオ製薬 OR シンニッタン OR シンジェンタジャパン OR シンジーテック OR シンクレイヤ OR しんきん信託銀行 OR しんきん証券 OR シンキ OR シロキ工業 OR シルバー精工 OR シライ電子工業 OR ジョンソン・エンド・ジョンソン)</t>
-  </si>
-  <si>
     <t>organization (ジョンソン OR ジョルダン OR ジョリーパスタ OR ジョナサン OR ショクリュー OR ショクブン OR ショーワ OR ショーボンド建設 OR ショーボンドホールディングス OR ショーエイコーポレーション OR ジョインテックス OR ジョイフル OR ジョイス)</t>
   </si>
   <si>
-    <t>organization (ジュンテンドー OR シュローダー証券投信投資顧問 OR シュローダー・インベストメント・マネジメント OR ジュピターテレコム OR ジューテックホールディングス OR ジューテック OR ジャレコ OR シャルレ OR ジャルパック OR ジャルセールス OR ジャルコ OR ジャムコ OR ジャフコ)</t>
-  </si>
-  <si>
-    <t>organization (ジャパン建材 OR ジャパンワクチン OR ジャパンマリンユナイテッド OR ジャパンマテリアル OR ジャパンフーズ OR ジャパンパイル OR ジャパンディスプレイ OR ジャパンシステム OR ジャパンケアサービスグループ OR ジャパンエポキシレジン OR ジャパンエナジー OR ジャパン・フード&amp;リカー・アライアンス OR ジャパン・デジタル・コンテンツ信託)</t>
-  </si>
-  <si>
-    <t>organization (ジャパン・デジタル・コンテンツ OR ジャパン・ティッシュ・エンジニアリング OR ジャパン・エア・ガシズ OR ジャニス工業 OR ジャックス OR シヤチハタ OR ジャストプランニング OR ジャストシステム OR ジャステック OR ジャスダック証券取引所 OR ジャスダック OR シャクリー・グローバル・グループ OR シャープ)</t>
-  </si>
-  <si>
-    <t>organization (じもとホールディングス OR シモジマ OR シミック OR しまむら OR シマノ OR 島津製作所 OR シマダヤ OR シベール OR ジプロ OR ジブラルタ生命保険 OR ジパング・ホールディングス OR ジパング OR シノブフーズ)</t>
-  </si>
-  <si>
-    <t>organization (シノケングループ OR シノケン OR シニアコミュニケーション OR シナネン OR シナジーマーケティング OR シティトラスト信託銀行 OR シティコープ証券 OR シティグループ証券 OR シティグループ・ジャパン・ホールディングス OR シップヘルスケアホールディングス OR ジップドラッグ OR シチズン電子 OR シチズン時計マニュファクチャリング)</t>
-  </si>
-  <si>
-    <t>organization (シチズン時計 OR シチズンマシナリー OR シチズンホールディングス OR シチズンファインテックミヨタ OR シチズンファインテック OR シチズンシービーエム OR シチズン・システムズ OR シダックス OR シダー OR シスメックス国際試薬 OR シスメックス OR システム情報 OR システムリサーチ)</t>
-  </si>
-  <si>
-    <t>organization (システムプロ OR システムディ OR システムソフト OR システムズ・デザイン OR システムインテグレータ OR システム・ロケーション OR システナ OR シスコシステムズ OR シスウェーブ OR シコー OR シグマ光機 OR ジグノシステムジャパン OR ジクト)</t>
-  </si>
-  <si>
-    <t>organization (シキボウ OR ジオマテック OR ジオスター OR シェル石油 OR シェルケミカルズジャパン OR ジェネラスコーポレーション OR ジェネシス・テクノロジー OR ジェトロニクス OR ジェット証券 OR ジェコス OR ジェコー OR ジェクシード OR ジェーソン)</t>
-  </si>
-  <si>
-    <t>organization (ジェーシービー OR ジェーシー・コムサ OR ジェイホールディングス OR ジェイホーム OR ジェイプロジェクト OR ジェイフィルム OR ジェイテック OR ジェイテクト OR ジェイス OR ジェイコム OR ジェイグループホールディングス OR ジェイオー建設 OR ジェイオーグループホールディングス)</t>
-  </si>
-  <si>
-    <t>organization (ジェイエムテクノロジー OR ジェイエスエス OR ジェイエイシーリクルートメント OR ジェイアイ傷害火災保険 OR ジェイアイエヌ OR ジェイ・ブリッジ OR ジェイ・プランニング OR ジェイ・エスコムホールディングス OR ジェイ・エー・エー OR ジーンテクノサイエンス OR ジーンズメイト OR シーマ OR シーボン)</t>
-  </si>
-  <si>
-    <t>organization (シード OR ジーテクト OR シーティーエス OR ジーダット OR シーズメン OR シーズクリエイト OR シーシーエス OR シークス OR シーキューブ OR ジーエルサイエンス OR シイエム・シイ OR ジーエフシー OR シーエヌエー)</t>
-  </si>
-  <si>
-    <t>organization (ジーエヌアイグループ OR ジーエヌアイ OR シーエス薬品 OR シーエスロジネット OR シーエスアイ OR ジーエス・ユアサマニュファクチュアリング OR ジーエス・ユアサバッテリー OR ジーエス・ユアサコーポレーション OR ジーエス・ユアサインダストリー OR シーエーシー OR シーイーシー OR シーアンドエス OR シーアイ化成)</t>
-  </si>
-  <si>
-    <t>organization (ジー・モード OR ジー・ネットワークス OR ジー・トレーディング OR ジー・テイスト OR ジー・エフ OR シー・ヴイ・エス・ベイエリア OR サン電子 OR サン建材 OR サンワテクノス OR サンワコムシスエンジニアリング OR サンリン OR サンリツ OR サンリオ)</t>
-  </si>
-  <si>
-    <t>organization (サンライズ・テクノロジー OR サンヨーホームズ OR サンヨーハウジング名古屋 OR サンユー建設 OR サンユウ OR サンメッセ OR サンマルクホールディングス OR サンマルクカフェ OR サンマルク OR サンポット OR サンフロンティア不動産 OR サンビシ OR サントリー食品インターナショナル)</t>
-  </si>
-  <si>
     <t>organization (サントリー食品 OR サントリー酒類 OR サントリーワインインターナショナル OR サントリーホールディングス OR サントリープロダクツ OR サントリーフーズ OR サントリービバレッジサービス OR サントリービール OR サントリーウエルネス OR サントリー OR サンドラッグ OR サンデン OR サンテック)</t>
   </si>
   <si>
     <t>organization (サンデーサン OR サンデー OR サンセイランディック OR サンセイ OR サンスター OR サンシャインシティ OR サンシティ OR サンコール OR サンコーテクノ OR サンコー OR サンケン電気 OR サンゲツ OR サンケイ化学)</t>
   </si>
   <si>
-    <t>organization (サンケイビル OR サンクスジャパン OR サンキ OR サンオータス OR サンエツ金属 OR サンエス OR サンエコサーマル OR サンエー化研 OR サンエー・インターナショナル OR サンエー OR サンウッド OR サンウエーブ工業 OR サンアロマー)</t>
-  </si>
-  <si>
-    <t>organization (サン・ライフ OR サン・マイクロシステムズ OR サン・ジャパン OR サムティ OR サムシングホールディングス OR サムコ OR サミット OR サミーネットワークス OR サミー OR サマンサタバサジャパンリミテッド OR サハダイヤモンド OR サノヤス造船 OR サノヤスホールディングス)</t>
-  </si>
-  <si>
-    <t>organization (サノヤス・ライド OR サノヤス・ヒシノ明昌 OR サニックス OR サニーサイドアップ OR サトレストランシステムズ OR サトーホールディングス OR サトー OR サッポロ不動産開発 OR サッポロ飲料 OR サッポロライオン OR サッポロホールディングス OR サッポロビール OR サッポロドラッグストアー)</t>
-  </si>
-  <si>
     <t>organization (サダマツ OR ササクラ OR サコス OR さくら情報システム OR サクラダ OR さくらケーシーエス OR さくらカード OR サクサホールディングス OR サクサ OR サガミチェーン OR サカタのタネ OR サカタインクス OR サカイ引越センター)</t>
   </si>
   <si>
-    <t>organization (サカイオーベックス OR さかい OR ザインエレクトロニクス OR サイレックス・テクノロジー OR サイボー OR サイボウズ OR サイバネットシステム OR サイバーファーム OR サイバード OR サイバーステップ OR サイバーコム OR サイバーエージェント OR サイネックス)</t>
-  </si>
-  <si>
-    <t>organization (サイタホールディングス OR サイゼリヤ OR さいか屋 OR ザイオン OR サイオステクノロジー OR サーラ住宅 OR サーラコーポレーション OR サービスウェア・コーポレーション OR サークルKサンクス OR ザ・パック OR コンフェックス OR コンピュータウェーブ OR コンビ)</t>
-  </si>
-  <si>
-    <t>organization (コンドーテック OR コンテック OR ゴンゾ OR コンセック OR コロワイド東日本 OR コロワイド西日本 OR コロワイド OR コロプラ OR コロナ OR ゴルフパートナー OR ゴルフダイジェスト・オンライン OR ゴルフ・ドゥ OR コモ)</t>
-  </si>
-  <si>
-    <t>organization (コメ兵 OR コメリ OR ゴメス・コンサルティング OR コムテック OR コムチュア OR コムシスホールディングス OR コムシード OR コマニー OR コマツ物流 OR コマツ産機 OR コマツユーティリティ OR コマツハウス OR コマツエンジニアリング)</t>
-  </si>
-  <si>
-    <t>organization (コマツNTC OR コマツ OR コマーシャル・アールイー OR コマ・スタジアム OR コベルコ建機 OR コベルコ科研 OR コベルコマテリアル銅管 OR コベルコシステム OR コベルコクレーン OR コネクトテクノロジーズ OR コネクシオ OR コニシ OR コニカミノルタヘルスケア)</t>
-  </si>
-  <si>
     <t>organization (コニカミノルタフォトイメージング OR コニカミノルタビジネステクノロジーズ OR コニカミノルタビジネスソリューションズ OR コニカミノルタオプト OR コニカミノルタオプティクス OR コニカミノルタエムジー OR コニカミノルタアドバンストレイヤー OR コニカミノルタ OR コナミデジタルエンタテインメント OR コナミスポーツ&amp;ライフ OR コナミスポーツ OR コナミコンピュータエンタテインメント東京 OR コナミコンピュータエンタテインメントスタジオ)</t>
   </si>
   <si>
-    <t>organization (コナミコンピュータエンタテインメントジャパン OR コナミ OR コナカ OR ゴトー OR コックス OR コダック OR コタ OR コスモ石油 OR コスモ証券 OR コスモス薬品 OR コスモスイニシア OR コスモ・バイオ OR コジマ)</t>
-  </si>
-  <si>
-    <t>organization (コシダカホールディングス OR コシダカ OR こころネット OR ココスジャパン OR ココカラファインホールディングス OR ココカラファインヘルスケア OR ココカラファイン OR コクヨファニチャー OR コクヨS&amp;T OR コクヨ OR コクド OR コカ・コーラボトリング OR コカ・コーラウエストジャパン)</t>
-  </si>
-  <si>
-    <t>organization (コカ・コーラウエスト OR コカ・コーライーストジャパン OR ゴールドマン・サックス証券 OR ゴールドマン・サックス・アセット・マネジメント OR ゴールドパック OR ゴールドクレスト OR ゴールドウイン OR コープケミカル OR コーナン商事 OR コーセル OR コーセーアールイー OR コーセー OR コーコス信岡)</t>
-  </si>
-  <si>
     <t>organization (コーエーテクモホールディングス OR コーエーテクモネット OR コーエーテクモゲームス OR コーエー OR コーアツ工業 OR コイト電工 OR コア OR ゲンダイエージェンシー OR ケンコーマヨネーズ OR ケンコーコム OR ゲンキー OR ケンウッド OR ケル)</t>
   </si>
   <si>
     <t>organization (ケミプロ化成 OR ケネディクス OR ゲオホールディングス OR ゲオディノス OR ゲオ OR ケーヨー OR ケーユーホールディングス OR ケーユー OR ゲームポット OR ゲームオン OR ケーヒン OR ゲートウェイホールディングス OR ゲートウェイ)</t>
   </si>
   <si>
-    <t>organization (ケーズホールディングス OR ケーエスケー OR ケー・エフ・シー OR ケイミュー OR ケイブ OR ケイヒン OR けいはんなバスホールディングス OR ケイティケイ OR ケイエス冷凍食品 OR ケアネット OR ケアサービス OR ケア21 OR グンゼ高分子)</t>
-  </si>
-  <si>
-    <t>organization (グンゼ OR クワザワ OR クロニクル OR クロップス OR クロスプラス OR クロス・マーケティンググループ OR クロス・マーケティング OR くろがね工作所 OR くろがねや OR グローリー OR グローべルス OR グローベルス OR グローブライド)</t>
-  </si>
-  <si>
-    <t>organization (グローバルダイニング OR グローバルアソシエイツ OR グローバルアクト OR グローバリー OR グローウェルホールディングス OR クレハ OR クレディセゾン OR クレディア OR クレディ・スイス証券 OR クレディ・スイス銀行 OR クレックス OR クレスト・インベストメンツ OR クレスコ)</t>
-  </si>
-  <si>
-    <t>organization (クレシア OR クレオ OR グレース OR クレアホールディングス OR グルメ杵屋 OR ぐるなび OR クリヤマ OR クリムゾン OR グリムス OR クリナップ OR クリップコーポレーション OR クリエートメディック OR クリエイトエス・ディー)</t>
-  </si>
-  <si>
-    <t>organization (クリエイトSDホールディングス OR クリエイト・レストランツ・ホールディングス OR クリエイト・レストランツ OR クリエイト OR クリエイティブ OR クリエアナブキ OR グリーンランドリゾート OR グリーンホスピタルサプライ OR グリーンフーズ OR グリーンハウス OR グリーンクロス OR クリード OR クリーク・アンド・リバー社)</t>
-  </si>
-  <si>
     <t>organization (グリー OR グランディハウス OR クラレトレーディング OR クラレエンジニアリング OR クラレ OR クラリオン OR クラボウ OR グラフテック OR グラフィックプロダクツ OR グラファイトデザイン OR クラビット OR クラスターテクノロジー OR クラシエ製薬)</t>
   </si>
   <si>
-    <t>organization (クラシエホールディングス OR クラシエホームプロダクツ OR クラシエフーズ OR くらコーポレーション OR グラクソ・スミスクライン OR クラウドゲート OR クラウディア OR クミアイ化学工業 OR クボテック OR クボタ松下電工外装 OR クボタ OR クノール食品 OR クニミネ工業)</t>
-  </si>
-  <si>
     <t>organization (グッドマン OR クックパッド OR クスリのアオキ OR クオリカ OR クオール OR クオーク OR クエスト OR クインランド OR クイック OR キンレイ OR きんでん OR キング工業 OR キングジム)</t>
   </si>
   <si>
@@ -1246,99 +814,21 @@
     <t>organization (キヤノンITソリューションズ OR キャタピラー東北 OR キャタピラージャパン OR キャタピラーウエストジャパン OR キムラユニティー OR キムラタン OR キムラ OR キトー OR キッツ OR キッセイ薬品工業 OR キッコーマン食品 OR キッコーマン OR きちり)</t>
   </si>
   <si>
-    <t>organization (キタムラ OR キタック OR キグナス石油 OR キクカワエンタープライズ OR ギガプライズ OR ギガス OR キーコーヒー OR キーエンス OR キーウェアソリューションズ OR キーウェァソリューションズ OR かんぽ生命保険 OR ガンホー・オンライン・エンターテイメント OR カンボウプラス)</t>
-  </si>
-  <si>
     <t>organization (かんなん丸 OR かんでんエンジニアリング OR カンダホールディングス OR カンダコーポレーション OR カンセキ OR がんこ炎 OR カワムラサイクル OR カワニシホールディングス OR かわでん OR カワチ薬品 OR カワタ OR カワセコンピュータサプライ OR カワサキマシンシステムズ)</t>
   </si>
   <si>
-    <t>organization (カワサキプレシジョンマシナリ OR カワサキプラントシステムズ OR カワサキ OR カルピス OR カルビー OR カルナバイオサイエンス OR カルチュア・コンビニエンス・クラブ OR カルソニックカンセイ OR ガリバーインターナショナル OR カラカミ観光 OR カヤバ工業 OR 鴨川グランドホテル OR カメイ)</t>
-  </si>
-  <si>
     <t>organization (カブドットコム証券 OR カプコン OR カノープス OR カノークス OR カネ美食品 OR カネヨウ OR カネミツ OR カネボウ化粧品 OR カネボウ OR カネソウ OR カネコ種苗 OR カナレ電気 OR カナモト)</t>
   </si>
   <si>
-    <t>organization (カナデン OR カナック OR かどや製油 OR カッシーナ・イクスシー OR カスミ OR ガステックサービス OR カシオ計算機 OR カシオマイクロニクス OR かざか証券 OR カゴメ OR カカクコム OR カウボーイ OR カイノス)</t>
-  </si>
-  <si>
-    <t>organization (カイジョー OR カイゲンファーマ OR カイゲン OR カイオム・バイオサイエンス OR カーリットホールディングス OR ガーラ OR カーメイト OR カーマ OR カーディフ生命保険 OR カーディナル OR カーチス OR オンワード樫山 OR オンワードホールディングス)</t>
-  </si>
-  <si>
-    <t>organization (オンリー OR オンコリスバイオファーマ OR オンコセラピー・サイエンス OR オンキヨーサウンド&amp;ビジョン OR オンキヨー OR オルビス OR オルトプラス OR オルガノ OR オリンピック OR オリンパスメディカルシステムズ OR オリンパス OR オリバー OR オリックス不動産)</t>
-  </si>
-  <si>
-    <t>organization (オリックス生命保険 OR オリックス証券 OR オリックス自動車 OR オリックス債権回収 OR オリックス銀行 OR オリックス・レンテック OR オリックス・ファシリティーズ OR オリックス・クレジット OR オリックス・インテリア OR オリックス・アルファ OR オリックス OR オリジン東秀 OR オリジン電気)</t>
-  </si>
-  <si>
     <t>organization (オリジナル設計 OR オリコン OR オリオンビール OR オリエントコーポレーション OR オリエンタル白石 OR オリエンタル酵母工業 OR オリエンタルランド OR オリエンタルモーター OR オリエンタルチエン工業 OR オリエンタルコンサルタンツ OR オムロンヘルスケア OR オプトロム OR オプトレックス)</t>
   </si>
   <si>
-    <t>organization (オプトエレクトロニクス OR オプト OR オプテックス・エフエー OR オプテックス OR オハラ OR オックスホールディングス OR オストジャパングループ OR オザックス OR オギハラ OR オカモト OR オカダアイヨン OR オールアバウト OR オーミケンシ)</t>
-  </si>
-  <si>
     <t>organization (オーマイ OR オーベクス OR オープンループ OR オープンインタフェース OR オービックビジネスコンサルタント OR オービック OR オービス OR オーバル OR オーハシテクニカ OR オオバ OR オーネックス OR オーナンバ OR オーナミ)</t>
   </si>
   <si>
     <t>organization (オートリ OR オートバックスセブン OR オートセブン OR オートウェーブ OR オーデリック OR オーテックジャパン OR オーテック OR オータケ OR オオゼキ OR オーシャンシステム OR オージス総研 OR オーケー食品工業 OR オーク設備工業)</t>
   </si>
   <si>
-    <t>organization (オークワ OR オークマ OR オークネット OR オーク OR オーエム製作所 OR オーエムツーネットワーク OR オーエムシーカード OR オーエス OR オーエー・システム・プラザ OR オーウイル OR オーイズミ OR オー・エイチ・ティー OR オエノンホールディングス)</t>
-  </si>
-  <si>
-    <t>organization (オウケイウェイヴ OR オイレス工業 OR エンプラス OR エンビプロ・ホールディングス OR エンチョー OR エンシュウ OR エンカレッジ・テクノロジ OR エン・ジャパン OR エレマテック OR エレコム OR ニチコン OR エルメ OR エルビー)</t>
-  </si>
-  <si>
-    <t>organization (エルナー OR エルセナ OR エルクリエイト OR エルクコーポレーション OR エル・シー・エーホールディングス OR エリアリンク OR エリアクエスト OR エムビーエス OR エムティジェネックス OR エムティーアイ OR エムジーホーム OR エムケー精工 OR エムエックス)</t>
-  </si>
-  <si>
-    <t>organization (エムエスティ保険サービス OR エムアンドエヌホールディングス OR エムアップ OR エム・ユー・フロンティア債権回収 OR エム・ピー・テクノロジーズ OR エム・エイチ・グループ OR エポスカード OR エフワン OR エフピコ OR エフテック OR エフティコミュニケーションズ OR エプソン販売 OR エプコ)</t>
-  </si>
-  <si>
-    <t>organization (エフエム大阪 OR エフアンドエム OR エフ・ディ・シィ・プロダクツ OR エフ・ジェー・ネクスト OR エフ・シー・シー OR エフ・エフ・シー OR エバラ食品工業 OR エバタ OR エノモト OR エノテカ OR エネサーブ OR エネゲート OR エヌエフ回路設計ブロック)</t>
-  </si>
-  <si>
-    <t>organization (エヌエス環境 OR エヌエスリース OR エヌアイデイ OR エヌアイシ・オートテック OR エヌ・デーソフトウェア OR エヌ・ティ・ティ都市開発 OR エヌ・ティ・ティ・データ・イントラマート OR エヌ・イーケムキャット OR エニグモ OR エナリス OR エナジーサポート OR エディオンEAST OR エディオン)</t>
-  </si>
-  <si>
-    <t>organization (エッチ・ケー・エス OR エックスネット OR エスラインギフ OR エスライン OR エスペック OR エスプール OR エスフーズ OR エスビー食品 OR エストラスト OR エステール OR エステー OR エスティック OR エスケー化研)</t>
-  </si>
-  <si>
-    <t>organization (エスケーエレクトロニクス OR エスケーアイ OR エスケイジャパン OR エスクロー・エージェント・ジャパン OR エスクリ OR エスグラントコーポレーション OR エスエス製薬 OR エスエス環境 OR エスイー OR エスアール開発 OR エスアールジータカミヤ OR エスアールエル OR エス・バイ・エル)</t>
-  </si>
-  <si>
-    <t>organization (エス・ディー・エスバイオテック OR エス・サイエンス OR エス・エム・エス OR エス・イー・ラボ OR エス・イー・エス OR エコナックホールディングス OR エコナック OR エコス OR エコグリーン OR エコートレーディング OR エクソンモービル OR エクセル OR エクセディ)</t>
-  </si>
-  <si>
-    <t>organization (エクシム OR エキサイト OR エーワン精密 OR エームサービス OR エービーシー・マート OR エービーエヌ・アムロ証券 OR エーピーアイコーポレーション OR エーティーエルシステムズ OR エース損害保険 OR エース証券 OR エース交易 OR エースホールディングス OR エージーピー)</t>
-  </si>
-  <si>
-    <t>organization (エーザイ OR エーアンドエーマテリアル OR エーアイテイー OR エー・ピーカンパニー OR エー・ディー・ワークス OR エー・ディ・エム OR エー・アンド・デイ OR エー・アンド・アイシステム OR エイボン・プロダクツ OR エイベックス・デジタル OR エイベックス・エンタテインメント OR エイペックス OR エイベックス)</t>
-  </si>
-  <si>
-    <t>organization (エイブル OR エイト日本技術開発 OR エイデン OR エイティング OR エイチワン OR エイチーム OR エイチアンドエフ OR エイチアイ OR エイチ・ツー・オーリテイリング OR エイチ・エス証券 OR エイチ・アイ・エス OR エイジス OR エイジア)</t>
-  </si>
-  <si>
-    <t>organization (エイケン工業 OR エイアンドティー OR エアーニッポン OR エア・ウォーター防災 OR エア・ウォーター OR ウルシステムズ OR ウライ OR ウニクレディト銀行 OR ウツミ屋証券 OR ウッドワン OR ウッドランド OR ウッドフレンズ OR ウチダエスコ)</t>
-  </si>
-  <si>
-    <t>organization (ウシオ電機 OR うかい OR ウォルマート・ジャパン・ホールディングス OR うおいち OR ウェルネット OR ウェルズ・ファーゴ銀行 OR ウエルシアホールディングス OR ウェブマネー OR ウェブクルー OR ウェッズ OR ウェッジホールディングス OR ウエストホールディングス OR ウエスト)</t>
-  </si>
-  <si>
-    <t>organization (ウエスコホールディングス OR ウエスコ OR ウェザーニューズ OR ウェーブロックホールディングス OR ウェアハウス OR ウインテスト OR ヴィンクス OR ウイン・パートナーズ OR ウイン・インターナショナル OR ウィン OR ヴィレッジヴァンガードコーポレーション OR ウィルソン・ラーニングワールドワイド OR ウィルコム)</t>
-  </si>
-  <si>
-    <t>organization (ウイルコホールディングス OR ウイルコ OR ウイル・コーポレーション OR ウィル OR ウィズ OR ウィザス OR ウィーヴ OR ヴィア・ホールディングス OR ヴァリック OR インボイス OR インベスコ・アセット・マネジメント OR インプレスホールディングス OR インプレス)</t>
-  </si>
-  <si>
-    <t>organization (インフォメーションクリエーティブ OR インフォメーション・ディベロプメント OR インフォマート OR インフォテリア OR インフォコム OR インネクスト OR イントランス OR インテリックス OR インテリジェントウェイブ OR インテリジェンス OR インテックホールディングス OR インデックス OR インテックシステム研究所)</t>
-  </si>
-  <si>
-    <t>organization (インテック OR インテージホールディングス OR インテージ OR インテア・ホールディングス OR インターライフホールディングス OR インターネット総合研究所 OR インターネットセキュリティシステムズ OR インターネットイニシアティブ OR インターニックス OR インタートレード OR インタースペース OR インターアクション OR インター)</t>
-  </si>
-  <si>
-    <t>organization (インスペック OR インスパイアー OR インサイト OR インヴァスト証券 OR イワブチ OR イワキ OR イリソ電子工業 OR イメージ情報開発 OR イメージワン OR イムラ封筒 OR イマジニア OR イマジカ・ロボットホールディングス OR イマジカ)</t>
-  </si>
-  <si>
     <t>organization (イマージュ OR イフジ産業 OR イフコ OR イビデングリーンテック OR イビデン OR イハラサイエンス OR イハラケミカル工業 OR イノテック OR イヌイ倉庫 OR イナリサーチ OR いなげや OR イトキン OR イトーヨーギョー)</t>
   </si>
   <si>
@@ -1348,48 +838,18 @@
     <t>organization (いすゞ自動車 OR イシダ OR イサム塗料 OR イクヨ OR イオン北海道 OR イオン九州 OR イオン銀行 OR イオンリテール OR イオンモール OR イオンマーケット OR イオンフィナンシャルサービス OR イオンファンタジー OR イオントップバリュ)</t>
   </si>
   <si>
-    <t>organization (イオンディライト OR イオンクレジットサービス OR イオン OR イエローハット OR いい生活 OR イーラックス OR イーブックイニシアティブジャパン OR イーピーエス OR イーネット・ジャパン OR イーデザイン損害保険 OR イーディーコントライブ OR イーター電機工業 OR イーストンエレクトロニクス)</t>
-  </si>
-  <si>
-    <t>organization (イーストスプリング・インベストメンツ OR イーシステム OR イーシー・ワン OR イーサポートリンク OR イーコンテクスト OR イーグル工業 OR イーエムシステムズ OR イーウェーヴ OR イー・レヴォリューション OR イー・モバイル OR イー・ギャランティ OR イー・キャッシュ OR イー・ガーディアン)</t>
-  </si>
-  <si>
-    <t>organization (イ・ギャランティ OR アンリツ OR アンドール OR アンデルセン・パン生活文化研究所 OR アンジェスMG OR アヲハタ OR アロカ OR アルメタックス OR アルペン OR アルフレッサ OR アルプス物流 OR アルプス電気 OR アルプス技研)</t>
-  </si>
-  <si>
-    <t>organization (アルファシステムズ OR アルファグループ OR アルファクス・フード・システム OR アルファ OR アルビス OR アルバック OR アルバイトタイムス OR アルトナー OR アルデプロ OR アルテック OR アルテサロンホールディングス OR アルティア橋本 OR アルティア)</t>
-  </si>
-  <si>
     <t>organization (アルテ OR アルチザネットワークス OR アルゼマーケティングジャパン OR アルゼ OR アルコニックス OR アルゴグラフィックス OR アルク OR アルインコ OR アリサカ OR アリコジャパン OR アリアンツ生命保険 OR アリアンツ火災海上保険 OR アリアケジャパン)</t>
   </si>
   <si>
-    <t>organization (アラビア石油 OR あらた OR アライドマテリアル OR アライドハーツ・ホールディングス OR アライドテレシスホールディングス OR アライヴコミュニティ OR アライアンス・バーンスタイン OR アムンディ・ジャパン OR アムスライフサイエンス OR アムスク OR アミューズ OR あみやき亭 OR アミタ)</t>
-  </si>
-  <si>
     <t>organization (アマノ OR アマテイ OR アマダ OR アマガサ OR アボットジャパン OR アベルコ OR アプレック OR アプリックス OR アプラス OR アプライド OR アブダビ石油 OR アピックヤマダ OR アビックス)</t>
   </si>
   <si>
     <t>organization (アビスト OR アビームコンサルティング OR アバント OR アバールデータ OR アネルバ OR アネスト岩田 OR アニコム損害保険 OR アニコムホールディングス OR アニヴェルセル OR アトル OR アトリウム OR アトラス OR アトムリビンテック)</t>
   </si>
   <si>
-    <t>organization (アトム OR アトミクス OR アドバンテッジリスクマネジメント OR アドバンテスト OR アドバンスト・メディア OR アドバンスクリエイト OR アドバネクス OR アドバックス OR アドテックプラズマテクノロジー OR アドテックス OR アドテックエンジニアリング OR アドテック OR アドソル日進)</t>
-  </si>
-  <si>
-    <t>organization (アドウェイズ OR アドヴァン OR アドアーズ OR アデランス OR アテナ工業 OR アデコ OR アップルインターナショナル OR アップガレージ OR アップ OR アツギ OR アッカ・ネットワークス OR アタカ大機 OR アソシエント・テクノロジー)</t>
-  </si>
-  <si>
-    <t>organization (アゼル OR アセット・マネジャーズ OR アセット・インベスターズ OR アゼアス OR アズワン OR アスモ OR あずみ OR アズマハウス OR アズビル金門 OR アズビル OR アストモスエネルギー OR アストマックス・トレーディング OR アストマックス)</t>
-  </si>
-  <si>
-    <t>organization (アステラス製薬 OR アスティス OR アスティ OR アズジェント OR アスコット OR アスクル OR アスキー OR あすか製薬 OR アスカネット OR アスカ OR アジレント・テクノロジー OR アシックス商事 OR アシックス)</t>
-  </si>
-  <si>
     <t>organization (あじかん OR アジェット OR アシードホールディングス OR アシード OR アジア航測 OR アジアグロースキャピタル OR アサンテ OR アサヒ飲料 OR アサヒペン OR アサヒプリテック OR アサヒビール OR アサヒグループホールディングス OR あさひ)</t>
   </si>
   <si>
-    <t>organization (アサックス OR アサツーディ・ケイ OR アサカ理研 OR アサガミ OR アコム OR アゴーラ・ホスピタリティー・グループ OR アコーディア・ゴルフ OR アクロス商事 OR アグロカネショウ OR アグレックス OR アクリフーズ OR アクリーティブ OR アクモス)</t>
-  </si>
-  <si>
     <t>organization (アクトコール OR アクセンチュア OR アクセルマーク OR アクセル OR アクセス OR アクシーズ OR アクシアルリテイリング OR アクサ生命保険 OR アクサダイレクト生命保険 OR アクサジャパンホールディング OR あきんどスシロー OR アキレス OR アキナジスタ)</t>
   </si>
   <si>
@@ -1399,18 +859,6 @@
     <t>organization (アイロムホールディングス OR アイロム OR アイレップ OR アイレックス OR アイル OR アイメタルテクノロジー OR あいホールディングス OR アイフルホームテクノロジー OR アイフル OR アイフリーク OR アイフラッグ OR アイフィスジャパン OR アイビー化粧品)</t>
   </si>
   <si>
-    <t>organization (アイネット OR アイネス OR アイナボホールディングス OR アイディホーム OR アイティフォー OR アイチコーポレーション OR アイダエンジニアリング OR アイセイ薬局 OR アイスタイル OR アイシン精機 OR アイシン高丘 OR アイシン・エィ・ダブリュ OR アイサンテクノロジー)</t>
-  </si>
-  <si>
-    <t>organization (アイコム OR アイコーポレーション OR アイケイ OR アイカ工業 OR あいおい生命保険 OR あいおいニッセイ同和損害保険 OR アイエヌジー投信 OR アイエヌジーバンクエヌ・ヴイ OR アイエックス・ナレッジ OR アイエス精機 OR アイエーグループ OR アイエー OR アイ・ユー・ケイ)</t>
-  </si>
-  <si>
-    <t>organization (アイ・ピー・エス OR アイ・ビー・イー OR アイ・テック OR アイ・ティー・テレコム OR アイ・ティー・シーネットワーク OR アイ・シー・エフ OR アイ・ケイ・ケイ OR アイ・オー・データ機器 OR アイ・エム・ジェイ OR アイ・エム・アイ OR アイ・エックス・アイ OR アイ・エス・ピー OR アイ・エス・ビー)</t>
-  </si>
-  <si>
-    <t>organization (アイ・エイチ・アイマリンユナイテッド OR アイ・アールジャパン OR アーレスティ OR アールワイフードサービス OR アールビバン OR アールテック・ウエノ OR アールシーコア OR アールエイジ OR アール・エフ・ラジオ日本 OR アーム電子 OR アーバンライフ OR アーバンコーポレイション OR アーバネットコーポレーション)</t>
-  </si>
-  <si>
     <t>organization (アーネストワン OR アートネイチャー OR アートスパークホールディングス OR アーティストハウス OR アース製薬 OR アーステクニカ OR アース OR アークランドサカモト OR アークランドサービス OR アークス OR アークコア OR アーク OR ZOA)</t>
   </si>
   <si>
@@ -1432,9 +880,6 @@
     <t>organization (SRA OR SPK OR SMK OR SMFGカード&amp;クレジット OR SMC OR SMBC日興証券 OR SMBC信託銀行 OR SMBCベンチャーキャピタル OR SMBCフレンド証券 OR SMBCファイナンスサービス OR SMBCコンシューマーファイナンス OR SMBCコンサルティング OR SJホールディングス)</t>
   </si>
   <si>
-    <t>organization (SJI OR SHOEI OR SHO-BI OR SGホールディングス OR SEホールディングス・アンド・インキュベーションズ OR SEMITEC OR SECカーボン OR SDホールディングス OR SDエンターテイメント OR SCSK OR SCREENホールディングス OR SCREENファインテックソリューションズ OR SCREENセミコンダクターソリューションズ)</t>
-  </si>
-  <si>
     <t>organization (SCREENグラフィックアンドプレシジョンソリューションズ OR SBSホールディングス OR SBR OR SBJ銀行 OR SBI証券 OR SBIホールディングス OR SBIフューチャーズ OR SBIパートナーズ OR SBIネットシステムズ OR SAPジャパン OR SANKYO OR RSC OR RKB毎日放送)</t>
   </si>
   <si>
@@ -1444,85 +889,647 @@
     <t>organization (OKK OR OKIデータ OR OKI OR ODKソリューションズ OR OCS OR OCHIホールディングス OR OBARA　GROUP OR OBARA OR oakキャピタル OR NTT東日本 OR NTT都市開発 OR NTT西日本 OR NTTファシリティーズ)</t>
   </si>
   <si>
-    <t>organization (NTTファイナンス OR NTTドコモ OR NTTデータ・イントラマート OR NTTデータ OR NTTタウンページ OR NTT OR NTN OR NSユナイテッド海運 OR NSW OR NSK販売 OR NSD OR NREG東芝不動産 OR NowLoading)</t>
-  </si>
-  <si>
     <t>organization (NOVA OR NOK OR NKSJひまわり生命保険 OR NKKスイッチズ OR NISグループ OR NIPPOコーポレーション OR NIPPO OR NFKホールディングス OR NEC化合物デバイス OR NECロジスティクス OR NECリース OR NECライティング OR NECマネジメントパートナー)</t>
   </si>
   <si>
     <t>organization (NECマグナスコミュニケーションズ OR NECプラットフォームズ OR NECフィールディング OR NECファシリティーズ OR NECパーチェシングサービス OR NECパーソナルコンピュータ OR NECネッツエスアイ OR NECネクサソリューションズ OR NECトーキン OR NECデザイン&amp;プロモーション OR NECディスプレイソリューションズ OR NECソリューションイノベータ OR NECシステムテクノロジー)</t>
   </si>
   <si>
-    <t>organization (NECキャピタルソリューション OR NECエンジニアリング OR NECアクセステクニカ OR NEC OR NDS OR NDB OR NCT信託銀行 OR NCS&amp;A OR NBCメッシュテック OR NBC OR NaITO OR N・フィールド OR MXモバイリング)</t>
-  </si>
-  <si>
     <t>organization (MUTOHホールディングス OR MSD OR MS&amp;ADインシュアランスグループホールディングス OR MORESCO OR MonotaRO OR MOCマーケティング OR MMCダイヤモンドファイナンス OR Mizkan　Holdings OR Misumi OR Minoriソリューションズ OR MIEコーポレーション OR MID都市開発 OR MICメディカル)</t>
   </si>
   <si>
     <t>organization (MICS化学 OR Meiji　Seikaファルマ OR MDAMアセットマネジメント OR MCフードスペシャリティーズ OR MCJ OR MARUWA OR MAGねっとホールディングス OR MAGねっと OR LTTバイオファーマ OR LSIメディエンス OR LIXILグループ OR LIXIL OR LEOC)</t>
   </si>
   <si>
-    <t>organization (KYCOMホールディングス OR KYB OR KTグループ OR KSK OR KOA OR KNTーCTホールディングス OR KLab OR KIホールディングス OR KISCO OR KHネオケム OR KG情報 OR KDDI OR KADOKAWA・DWANGO)</t>
-  </si>
-  <si>
     <t>organization (KADOKAWA OR K&amp;Oエナジーグループ OR Jトラスト OR Jストリーム OR JX日鉱日石開発 OR JXホールディングス OR JXエンジニアリング OR JVCケンウッド OR JUKI OR JTB北海道 OR JTB東北 OR JTB東海 OR JTB中部)</t>
   </si>
   <si>
     <t>organization (JTB中国四国 OR JTB大阪 OR JTB西日本 OR JTB首都圏 OR JTB九州 OR JTB関東 OR JTB関西 OR JTBコーポレートセールス OR JTB OR JST OR JSR OR JSP OR JSOL)</t>
   </si>
   <si>
-    <t>organization (JSC OR JSAT OR JPモルガン証券 OR JPモルガン・アセット・マネジメント OR JPホールディングス OR JPNホールディングス OR JNC石油化学 OR JNC OR JKホールディングス OR Jーオイルミルズ OR JーWAVE OR JIMOS OR JIEC)</t>
-  </si>
-  <si>
     <t>organization (JFE物流 OR JFE商事ホールディングス OR JFE商事 OR JFE工建 OR JFE建材 OR JFEスチール OR JFEシステムズ OR JFEコンテイナー OR JFEケミカル OR JFEエンジニアリング OR JEUGIA OR JCU OR JCRファーマ)</t>
   </si>
   <si>
-    <t>organization (JCLバイオアッセイ OR JBイレブン OR JBISホールディングス OR JBCCホールディングス OR JBCC OR JA三井リース OR JALホテルズ OR JALUX OR JALCOホールディングス OR J・フロントリテイリング OR J&amp;Kカーエレクトロニクス OR J フロントリテイリング OR ITサービス)</t>
-  </si>
-  <si>
-    <t>organization (ITX OR ITbook OR IMV OR IMAGICA OR IJTテクノロジーホールディングス OR IHI回転機械 OR IHI運搬機械 OR IHIターボ OR IHIシバウラ OR IHIエアロスペース OR IHIインフラシステム OR IHI OR IHG・ANA・ホテルズグループジャパン)</t>
-  </si>
-  <si>
     <t>organization (IGポート OR IDEC OR IDCフロンティア OR ICDAホールディングス OR IBJL東芝リース OR IBJ OR Human21 OR HOYA OR HIOKI OR GSユアサ OR GSIクレオス OR GMOペイメントゲートウェイ OR GMOクラウド)</t>
   </si>
   <si>
     <t>organization (GMOインターネット OR GMOアドパートナーズ OR GMB OR GKNドライブラインジャパン OR GFA OR GE三洋クレジット OR GEフィナンシャルサービス OR GDH OR GCA OR G-7ホールディングス OR FXプライムbyGMO OR FXプライム OR FPG)</t>
   </si>
   <si>
-    <t>organization (fonfun OR FM802 OR FDK OR FCM OR Eストアー OR ERIホールディングス OR enish OR ENEOSフロンティア OR EMIミュージック・ジャパン OR EMGマーケティング OR EMCジャパン OR EMCOMホールディングス OR EJビジネス・パートナーズ)</t>
-  </si>
-  <si>
-    <t>organization (EIZO OR eーまちタウン OR ECI OR eBASE OR E・Jホールディングス OR DTS OR DPGホールディングス OR DOWAホールディングス OR Dole International Holdings OR DNライティング OR DNP西日本 OR DMG森精機 OR DICグラフィックス)</t>
-  </si>
-  <si>
     <t>organization (DIC OR DIAMアセットマネジメント OR DCMホールディングス OR DCM　Japanホールディングス OR DB信託 OR CSSホールディングス OR CSP OR CSKシステムズ OR CSKサービスウェア OR CSKーITマネジメント OR CSK OR CRCソリューションズ OR CKプロパティー)</t>
   </si>
   <si>
     <t>organization (CKサンエツ OR CKK OR CKD OR CIJ OR CHOYA OR CHIグループ OR CHINTAI OR CFSコーポレーション OR CEホールディングス OR CDS OR CDG OR CCC OR CAC　Holdings)</t>
   </si>
   <si>
-    <t>organization (C&amp;I　Holdings OR C&amp;Gシステムズ OR BSジャパン OR BNYメロン・アセット・マネジメント・ジャパン OR BNPパリバ証券 OR BNPパリバインベストメント・パートナーズ OR BMB OR BC OR BーRサーティワンアイスクリーム OR BBH OR au損害保険 OR ATグループ OR ASTI)</t>
-  </si>
-  <si>
-    <t>organization (ASーSZKi OR Asーmeエステール OR ASK　PLANNING　CENTER OR ASJ OR AQインタラクティブ OR AOKIホールディングス OR AOI　Pro. OR ANAホテルズ&amp;リゾーツ OR ANAホールディングス OR ANAP OR AMBITION OR AIU損害保険 OR AIGジャパン・ホールディングス)</t>
-  </si>
-  <si>
     <t>organization (AIGエジソン生命保険 OR AGS OR AGCテクノグラス OR AFCーHDアムスライフサイエンス OR ADEKA OR ACホールディングス OR ACKグループ OR ABB OR A.Cホールディングス OR 55ステーション OR 21LADY OR 1stホールディングス OR 翔薬)</t>
   </si>
   <si>
     <t>organization (クオンツ OR キヤノン OR オンワード商事 OR オリカキャピタル OR エルピーダメモリ OR エムオーテック OR 野村 OR 住友)</t>
+  </si>
+  <si>
+    <t>organization (理研グリーン OR 理経 OR 利根地下技術 OR 利根コカコーラボトリング OR 藍沢証券 OR 淀川製鋼所 OR 養命酒製造 OR 陽光都市開発 OR 幼児活動研究会 OR 郵船商事 OR 郵船ロジスティクス OR 湧永製薬 OR 有沢製作所)</t>
+  </si>
+  <si>
+    <t>organization (野村信託銀行 OR 野村証券 OR 野村證券 OR 野村リビングサポート OR 野村マイクロサイエンス OR 野村ホールディングス OR 野村ホーム OR 野村ブラックロックアセットマネジメント OR 野村ファンドリサーチアンドテクノロジー OR 野村アセットマネジメント OR 野崎印刷紙業 OR 野原産業 OR 野村総合研究所)</t>
+  </si>
+  <si>
+    <t>organization (明治乳業 OR 明治電機工業 OR 明治製菓 OR 明治機械 OR 明治海運 OR 明治屋商事 OR 明治屋 OR 明治安田損害保険 OR 明治安田生命保険 OR 明治安田アセットマネジメント OR 明治ホールディングス OR 明治ドレスナーアセットマネジメント OR 明治ゴム化成)</t>
+  </si>
+  <si>
+    <t>organization (北興化学工業 OR 北海道旅客鉄道 OR 北海道放送 OR 北海道電力 OR 北海道中央バス OR 北海道新聞社 OR 北海道丸井今井 OR 北海道テレビ放送 OR 北海道セキスイハイム OR 北海道コカコーラボトリング OR 北海電気工事 OR 北海製缶 OR 北海道文化放送)</t>
+  </si>
+  <si>
+    <t>organization (富士電機E&amp;C OR 富士電機 OR 富士通フロンテック OR 富士通ビーエスシー OR 富士通パーソナルズ OR 富士通ネットワークソリューションズ OR 富士通テン OR 富士通テレコムネットワークス OR 富士通デバイス OR 富士通セミコンダクター OR 富士通ゼネラル OR 富士通コンポーネント OR 富士通エレクトロニクス)</t>
+  </si>
+  <si>
+    <t>organization (富士興産 OR 富士急行 OR 富士機工 OR 富士機械製造 OR 富士機械 OR 富士レビオ OR 富士フイルムホールディングス OR 富士フイルム OR 富士ピーエス OR 富士バイオメディックス OR 富士テクニカ宮津 OR 富士テクニカ OR 富士ソフト)</t>
+  </si>
+  <si>
+    <t>organization (肥後銀行 OR 比較com OR 卑弥呼 OR 飯野海運 OR 飯田通商 OR 八木通商 OR 八幡証券 OR 八千代工業 OR 八千代銀行 OR 八十二証券 OR 八十二銀行 OR 八洲電機 OR 八光信用金庫)</t>
+  </si>
+  <si>
+    <t>organization (日立金属アドメット OR 日立金属 OR 日立機電工業 OR 日立機材 OR 日立化成商事 OR 日立化成工業 OR 日立化成 OR 日立ライティング OR 日立ホームアンドライフソリューション OR 日立プラント建設 OR 日立プラントテクノロジー OR 日立プラントサービス OR 日立プラントコンストラクション)</t>
+  </si>
+  <si>
+    <t>organization (日立プラズマディスプレイ OR 日立ビルシステム OR 日立パワーソリューションズ OR 日立ハウステック OR 日立ハイテクノロジーズ OR 日立システムズ OR 日立システムアンドサービス OR 日立コンシューマエレクトロニクス OR 日立コンシューママーケティング OR 日立コミュニケーションテクノロジー OR 日立キャピタル OR 日立オートパーツ&amp;サービス OR 日立エーアイシー)</t>
+  </si>
+  <si>
+    <t>organization (日立インダストリイズ OR 日立アプライアンス OR 日立GEニュークリアエナジー OR 日油技研工業 OR 日油 OR 日野自動車 OR 日本坩堝 OR 日本和装ホールディングス OR 日本旅行 OR 日本郵便 OR 日本郵船 OR 日本郵政公社 OR 日本郵政)</t>
+  </si>
+  <si>
+    <t>organization (日本レヂボン OR 日本レストランシステム OR 日本リーテック OR 日本ラッド OR 日本ライフライン OR 日本ライトン OR 日本ユピカ OR 日本ユニシスソリューション OR 日本ユニシス OR 日本ユニコム OR 日本メディカルネットコミュニケーションズ OR 日本メクトロン OR 日本ミルクコミュニティ)</t>
+  </si>
+  <si>
+    <t>organization (日本プリメックス OR 日本プラスト OR 日本フォームサービス OR 日本フェンオール OR 日本フエルト OR 日本フイルコン OR 日本フィッツ OR 日本ファルコム OR 日本ファイリング OR 日本ヒューレットパッカード OR 日本ヒューム OR 日本ビューホテル OR 日本ピストンリング)</t>
+  </si>
+  <si>
+    <t>organization (日本ビジネスコンピューター OR 日本ピグメント OR 日本ビクター OR 日本パワーファスニング OR 日本パレットプール OR 日本バルカー工業 OR 日本ハム OR 日本ハウズイング OR 日本バイリーン OR 日本ハイパック OR 日本パーキング OR 日本パーカライジング OR 日本ドレークビームモリン)</t>
+  </si>
+  <si>
+    <t>organization (日本トリム OR 日本トランスシティ OR 日本トランスオーシャン航空 OR 日本トラスティサービス信託銀行 OR 日本ドライケミカル OR 日本トムソン OR 日本トーカンパッケージ OR 日本トイザらス OR 日本テレホン OR 日本テレビ放送網 OR 日本テレビホールディングス OR 日本テレコム OR 日本テラデータ)</t>
+  </si>
+  <si>
+    <t>organization (日本デジタル研究所 OR 日本デコラックス OR 日本テクノラボ OR 日本テキサスインスツルメンツ OR 日本タングステン OR 日本たばこ産業 OR 日本タッパーウェア OR 日本タタコンサルタンシーサービシズ OR 日本タイムシェア OR 日本セラミック OR 日本ゼネラルフード OR 日本ゼオン OR 日本スピンドル製造)</t>
+  </si>
+  <si>
+    <t>organization (日本ジャンボー OR 日本シャクリー OR 日本システム技術 OR 日本シエーリング OR 日本サードパーティ OR 日本コンラックス OR 日本コンピュータシステム OR 日本コンピューターシステム OR 日本コンピュータダイナミクス OR 日本コンセプト OR 日本コンクリート工業 OR 日本コロムビア OR 日本コムシス)</t>
+  </si>
+  <si>
+    <t>organization (日本コークス工業 OR 日本ケミファ OR 日本ケミコン OR 日本ケミカルリサーチ OR 日本ケーブルシステム OR 日本ケアサプライ OR 日本クロージャー OR 日本ギア工業 OR 日本カタン OR 日本ガスケット OR 日本ガイシ OR 日本カーリット OR 日本カーボン)</t>
+  </si>
+  <si>
+    <t>organization (日本カーバイド工業 OR 日本カーソリューションズ OR 日本オラクル OR 日本オプティカル OR 日本オフィスシステム OR 日本オーチスエレベータ OR 日本エンタープライズ OR 日本エルエスアイカード OR 日本エルシーエー OR 日本エムディエム OR 日本エマージェンシーアシスタンス OR 日本エスリード OR 日本エスコン)</t>
+  </si>
+  <si>
+    <t>organization (日本エスエイチエル OR 日本エアーテック OR 日本エアリキード OR 日本ウェーブロック OR 日本インテグランドホールディングス OR 日本アンテナ OR 日本アルミ OR 日本アムウェイ OR 日本アビオニクス OR 日本アセットマーケティング OR 日本アジア投資 OR 日本アジアグループ OR 日本アクセス)</t>
+  </si>
+  <si>
+    <t>organization (日鉄リース OR 日通NECロジスティクス OR 日鍛バルブ OR 日創プロニティ OR 日精樹脂工業 OR 日精エーエスビー機械 OR 日清紡メカトロニクス OR 日清紡ホールディングス OR 日清紡ブレーキ OR 日清紡テキスタイル OR 日清紡 OR 日清製粉グループ本社 OR 日清製粉)</t>
+  </si>
+  <si>
+    <t>organization (日経メディアマーケティング OR 日経メディアプロモーション OR 日経ホーム出版社 OR 日経プラザ&amp;サービス OR 日経ビルサービス OR 日経カルチャー OR 日経QUICKニュース社 OR 日経HR OR 日経CNBC OR 日経BP OR 日銀 OR 日興フィナンシャルインテリジェンス OR 日興ビジネスシステムズ)</t>
+  </si>
+  <si>
+    <t>organization (東急レクリエーション OR 東急リバブル OR 東急ホテルズ OR 東急ハンズ OR 東急コミュニティー OR 東急エージェンシー OR 東缶興業 OR 東葛ホールディングス OR 東海旅客鉄道 OR 東海理化 OR 東海物産 OR 東海東邦 OR 東海東京フィナンシャルホールディングス)</t>
+  </si>
+  <si>
+    <t>organization (東栄住宅 OR 東栄リーファーライン OR 東映ラボテック OR 東映アニメーション OR 東映 OR 東亜道路工業 OR 東亜石油 OR 東亜合成 OR 東亜建設工業 OR 東亜バルブエンジニアリング OR 東亜バルブ OR 東亜ディーケーケー OR 東レ建設)</t>
+  </si>
+  <si>
+    <t>organization (東レエンジニアリング OR 東レインターナショナル OR 東レメディカル OR 東レデュポン OR 東レダウコーニング OR 東レ OR 東リ OR 東プレ OR 東テク OR 東ソー物流 OR 東ソー OR 東セロ OR 島田理化工業)</t>
+  </si>
+  <si>
+    <t>organization (中国新聞社 OR 中国工業 OR 中国銀行 OR 中広 OR 中原証券 OR 中京医薬品 OR 中京コカコーラボトリング OR 中外炉工業 OR 中外製薬 OR 中外鉱業 OR 中央毛織 OR 中央無線 OR 中央発条)</t>
+  </si>
+  <si>
+    <t>organization (第一フロンティア生命保険 OR 第一カッター興業 OR 大和冷機工業 OR 大和電設工業 OR 大和総研ホールディングス OR 大和総研ビジネスイノベーション OR 大和総研 OR 大和生命保険 OR 大和証券投資信託委託 OR 大和証券グループ本社 OR 大和証券キャピタルマーケッツ OR 大和証券エスエムビーシー OR 大和証券)</t>
+  </si>
+  <si>
+    <t>organization (大平洋金属 OR 大平工業 OR 大分銀行 OR 大八化学工業 OR 大日本木材防腐 OR 大日本塗料 OR 大日本住友製薬 OR 大日本紙業 OR 大日本印刷 OR 大日本コンサルタント OR 大日精化工業 OR 大日光エンジニアリング OR 大同特殊鋼)</t>
+  </si>
+  <si>
+    <t>organization (太平エンジニアリング OR 多木化学 OR 多摩川電子 OR 多摩川ホールディングス OR 多摩信用金庫 OR 村田製作所 OR 村田機械 OR 村上開明堂 OR 損保ジャパン日本興亜アセットマネジメント OR 損保ジャパンひまわり生命保険 OR 損保ジャパンアセットマネジメント OR 損害保険ジャパン OR 足利銀行)</t>
+  </si>
+  <si>
+    <t>organization (青木あすなろ建設 OR 青森銀行 OR 青山商事 OR 青山財産ネットワークス OR 誠建設工業 OR 西洋フードコンパスグループ OR 西友 OR 西野商事 OR 西部電気工業 OR 西部電機 OR 西部石油 OR 西部ガス OR 西武運輸)</t>
+  </si>
+  <si>
+    <t>organization (市田 OR 市進ホールディングス OR 市進 OR 市光工業 OR 四電工 OR 四国旅客鉄道 OR 四国電力 OR 四国銀行 OR 四国化成工業 OR 四国コカコーラボトリング OR 四国アルフレッサ OR 産業振興 OR 燦キャピタルマネージメント)</t>
+  </si>
+  <si>
+    <t>organization (三菱商事パッケージング OR 三菱商事テクノス OR 三菱商事RtMジャパン OR 三菱商事ユービーエスリアルティ OR 三菱商事 OR 三菱重工業 OR 三菱樹脂 OR 三菱自動車 OR 三菱原子燃料 OR 三菱化工機 OR 三菱化学産資 OR 三菱化学ポリエステルフィルム OR 三菱化学)</t>
+  </si>
+  <si>
+    <t>organization (三菱UFJ証券ホールディングス OR 三菱UFJ証券 OR 三菱UFJリサーチ&amp;コンサルティング OR 三菱UFJリース OR 三菱UFJモルガンスタンレー証券 OR 三菱UFJフィナンシャルグループ OR 三菱UFJニコス OR 三菱UFJウェルスマネジメント証券 OR 三東工業社 OR 三谷商事 OR 三谷産業 OR 三谷セキサン OR 三相電機)</t>
+  </si>
+  <si>
+    <t>organization (三晃金属工業 OR 三幸 OR 三光産業 OR 三光合成 OR 三光ソフランホールディングス OR 三光ソフラン OR 三交不動産 OR 三建設備工業 OR 三協立山 OR 三協フロンテア OR 三協立山ホールディングス OR 三共理化学 OR 三共生興)</t>
+  </si>
+  <si>
+    <t>organization (三共 OR 三京化成 OR 三機工業 OR 三笠製薬 OR 三笠コカコーラボトリング OR 三越伊勢丹ホールディングス OR 三越伊勢丹 OR 三越 OR 三益半導体工業 OR 三栄コーポレーション OR 三浦工業 OR 三浦印刷 OR 三井物産プラントシステム)</t>
+  </si>
+  <si>
+    <t>organization (三井住友海上プライマリー生命保険 OR 三井住友海上きらめき生命保険 OR 三井住友海上あいおい生命保険 OR 三井住友フィナンシャルグループ OR 三井住友ファイナンス&amp;リース OR 三井住友トラスト不動産 OR 三井住友トラストホールディングス OR 三井住友トラストパナソニックファイナンス OR 三井住友カード OR 三井住友アセットマネジメント OR 三井住商建材 OR 三井住建道路 OR 三井鉱山)</t>
+  </si>
+  <si>
+    <t>organization (三井デュポンフロロケミカル OR 三愛石油 OR 三愛 OR 三ッ輪運輸 OR 三ツ星ベルト OR 三ッ星 OR 雑貨屋ブルドッグ OR 札幌臨床検査センター OR 札幌北洋ホールディングス OR 札幌通運 OR 札幌証券取引所 OR 札幌銀行 OR 札幌テレビ放送)</t>
+  </si>
+  <si>
+    <t>organization (近畿車輌 OR 近畿コカコーラボトリング OR 玉井商船 OR 極洋 OR 極東貿易 OR 極東石油工業 OR 極東証券 OR 極東開発工業 OR 極楽湯 OR 暁飯島工業 OR 郷鉄工所 OR 興和紡績 OR 興和不動産)</t>
+  </si>
+  <si>
+    <t>organization (伊藤忠建材 OR 伊藤忠丸紅鉄鋼 OR 伊藤忠ロジスティクス OR 伊藤忠テクノソリューションズ OR 伊藤忠テクノソリューション OR 伊藤忠エネクス OR 伊藤忠アーバンコミュニティ OR 伊藤忠テクノソリューションズ OR 伊藤組土建 OR 伊藤園 OR 伊藤ハム OR 伊田テクノス OR 伊勢湾海運)</t>
+  </si>
+  <si>
+    <t>organization (伊勢丹 OR 伊勢化学工業 OR 杏林製薬 OR 安藤電気 OR 安藤証券 OR 安藤建設 OR 安藤間 OR 安藤 OR 安田投信投資顧問 OR 安田倉庫 OR 安宅建材 OR 安川電機 OR 安川情報システム)</t>
+  </si>
+  <si>
+    <t>organization (ワタベウェディング OR ワシントンホテル OR ワコム OR ワコールホールディングス OR ワコール OR ワキタ OR わかもと製薬 OR ワオコーポレーション OR ワイヤレスゲート OR ワイズマン OR ワイズテーブルコーポレーション OR ワイス OR ワイエスフード)</t>
+  </si>
+  <si>
+    <t>organization (ワイエイシイ OR ワイイーデータ OR ワールドホールディングス OR ワールドインテック OR ワールドロジ OR ワールド OR ワークスアプリケーションズ OR ロンビック OR ロンシール工業 OR ロングライフホールディング OR ロプロ OR ロフト OR ロブテックス)</t>
+  </si>
+  <si>
+    <t>organization (ロッテリア OR ロッテ OR ロックペイント OR ロックフィールド OR ロジネットジャパン OR ロジスティクスネットワーク OR ロジコム OR ローランドディージー OR ローランド OR ローヤル電機 OR ローム OR ローマイヤ OR ロート製薬)</t>
+  </si>
+  <si>
+    <t>organization (レデイ薬局 OR レックスホールディングス OR レック OR レシップホールディングス OR レシップ OR レカム OR レオン自動機 OR レオパレス21 OR レオ OR レーサム OR レーザーテック OR レインズインターナショナル OR レイテックス)</t>
+  </si>
+  <si>
+    <t>organization (ルシアン OR ルーデンホールディングス OR リンナイ OR リンテック OR リンコーコーポレーション OR リンクアンドモチベーション OR リンクワン OR リンクセオリーホールディングス OR りんかい日産建設 OR リンガーハットジャパン OR リンガーハット OR リロケーションジャパン OR リロクラブ)</t>
+  </si>
+  <si>
+    <t>organization (リリカラ OR リョービ OR リョーショクリカー OR リョーサン OR リベレステ OR リプラス OR リヒトラブ OR リバースチール OR リバーエレテック OR リニカル OR リテラクレア証券 OR リックス OR リックコーポレーション)</t>
+  </si>
+  <si>
+    <t>organization (りそな総合研究所 OR りそなホールディングス OR リソー教育 OR リゾートトラスト OR リズム時計工業 OR リサパートナーズ OR リコーリース OR リコープリンティングシステムズ OR リコーテクノシステムズ OR リコージャパン OR リコーエレメックス OR リコーインダストリー OR リコーインダストリアルソリューションズ)</t>
+  </si>
+  <si>
+    <t>organization (リコー OR リケン OR リクルートホールディングス OR リクルート OR リオン OR リオチェーンホールディングス OR リオチェーン OR リーファーライン OR リーバイストラウスジャパン OR リード OR リーダー電子 OR リーガルコーポレーション OR リアルビジョン)</t>
+  </si>
+  <si>
+    <t>organization (リアルコム OR ランドビジネス OR ランドコム OR ランド OR ランテック OR ランシステム OR ラルズ OR ラピーヌ OR らでぃっしゅぼーや OR ラディアホールディングス OR ラッセルインベストメント OR ラックランド OR ラックホールディングス)</t>
+  </si>
+  <si>
+    <t>organization (ライフ OR ライト工業 OR ライトオン OR ライオン OR ラパルレ OR ラアトレ OR ヨンドシーホールディングス OR ヨンキュウ OR ヨロズ OR よみうりランド OR ヨネックス OR ヨネイ OR よつ葉乳業)</t>
+  </si>
+  <si>
+    <t>organization (ヨシタケ OR ヨシコン OR ヨコオ OR ヨータイ OR ヨークマート OR ヨークベニマル OR ユビキタスエナジー OR ユビキタス OR ユニリーバジャパンホールディングス OR ユニリーバジャパンカスタマーマーケティング OR ユニリーバジャパン OR ユニマットライフ OR ユニプレス)</t>
+  </si>
+  <si>
+    <t>organization (ユニバンス OR ユニパルス OR ユニバース OR ユニバーサル製缶 OR ユニバーサル園芸社 OR ユニバーサルミュージック OR ユニバーサルホーム OR ユニバーサルエンターテインメント OR ユニデン OR ユニチカ OR ユニダックス OR ユニコムグループホールディングス OR ユニココーポレーション)</t>
+  </si>
+  <si>
+    <t>organization (ユニクロ OR ユニキャリアホールディングス OR ユニキャリア OR ユニカフェ OR ユニオンホールディングス OR ユニオンペイント OR ユニオンツール OR ユニーグループホールディングス OR ユニー OR ユニアデックス OR ユニチャームペットケア OR ユニチャーム OR ユナイテッドアローズ)</t>
+  </si>
+  <si>
+    <t>organization (ユーエスシー OR ユーエスジェイ OR ユーエスエス OR ユアテック OR ユアサ商事 OR ユアサフナショク OR ヤンマー農機 OR ヤンマーホールディングス OR ヤンセンファーマ OR やまや OR やまびこ OR ヤマハ発動機 OR ヤマハミュージックエンタテインメントホールディングス)</t>
+  </si>
+  <si>
+    <t>organization (ヤマハ OR ヤマノホールディングス OR やまねメディカル OR ヤマナカ OR ヤマト硝子 OR ヤマト運輸 OR ヤマトマテリアル OR ヤマトホールディングス OR ヤマトインダストリー OR ヤマト OR ヤマックス OR ヤマダ電機 OR ヤマタネ)</t>
+  </si>
+  <si>
+    <t>organization (ヤクルト本社 OR ヤギコーポレーション OR ヤギ OR ヤガミ OR ヤオコー OR ヤーマン OR モンテカルロ OR モロゾフ OR モルフォ OR モルテン OR モルガンスタンレーMUFG証券 OR モルガンスタンレーインベストメントマネジメント OR モルガンスタンレーアセットマネジメント投信)</t>
+  </si>
+  <si>
+    <t>organization (モスフードサービス OR モスインスティテュート OR モジュレ OR もしもしホットライン OR モーニングスター OR メンバーズ OR メルテックス OR メルシャン OR メルコホールディングス OR メリルリンチ日本証券 OR メモレックステレックス OR メフォス OR メビックス)</t>
+  </si>
+  <si>
+    <t>organization (メドレックス OR メドピア OR メディビックグループ OR メディビック OR メディパルホールディングス OR メディネット OR メディセオ OR メディサイエンスプラニング OR メディケア生命保険 OR メディキット OR メディカル一光 OR メディカルシステムネットワーク OR メディカルケアサービス)</t>
+  </si>
+  <si>
+    <t>organization (ムサシ OR ムーンバット OR ムーンスター OR ミントウェーブ OR ミロク情報サービス OR ミロク OR ミレニアムリテイリング OR みらかホールディングス OR みらい建設工業 OR ミライトホールディングス OR ミライトテクノロジーズ OR ミライト OR ミライアル)</t>
+  </si>
+  <si>
+    <t>organization (ミヨタ OR ミヨシ油脂 OR ミューチュアル OR ミヤチテクノス OR ミヤコ OR ミマキエンジニアリング OR ミホウジャパン OR ミネルヴァホールディングス OR ミネベアモータ OR ミネベア OR ミニストップ OR みなと銀行 OR ミツミ電機)</t>
+  </si>
+  <si>
+    <t>organization (ミサワホーム OR ミサワ OR ミクロン精密 OR ミクニ OR ミクシィ OR ミキモト OR ミカレディ OR マンパワーグループ OR マンパワージャパン OR まんだらけ OR マンダム OR マンインベストメンツ証券 OR 丸大食品)</t>
+  </si>
+  <si>
+    <t>organization (マネーパートナーズ OR マネースクウェアジャパン OR マニー OR マツヤ OR マツモトキヨシ九州販売 OR マツモトキヨシホールディングス OR マツモトキヨシ OR マツモト OR マツダオートリース OR マツダ OR マックハウス OR マックスバリュ北海道 OR マックスバリュ東北)</t>
+  </si>
+  <si>
+    <t>organization (マキタ OR マガシーク OR マイスターエンジニアリング OR マイクロソフト OR マーチャントバンカーズ OR マースエンジニアリング OR マークテック OR ホンダクリオ東葛 OR ホンダ OR ホロン OR ボルテージ OR ホリプロ OR ポリプラスチックス)</t>
+  </si>
+  <si>
+    <t>organization (ポッカコーポレーション OR ホソカワミクロン OR ホシデン OR ホシザキ電機 OR ポケットカード OR ほくやく竹山ホールディングス OR ほくやく OR ほくほくフィナンシャルグループ OR ホクト OR ホクシン OR ホギメディカル OR ポーラ化成工業 OR ポーラオルビスホールディングス)</t>
+  </si>
+  <si>
+    <t>organization (ペンタックス OR ベルパーク OR ベルテクノ OR ベルックス OR ベルシステム24 OR ベルグアース OR ベルーナ OR ベリトランス OR ベリテ OR ベリサーブ OR ヘリオステクノホールディング OR ベネフィットワン OR ベネッセホールディングス)</t>
+  </si>
+  <si>
+    <t>organization (プロミス OR プロパスト OR プロネクサス OR プロトコーポレーション OR プロデュース OR ブロッコリー OR プロダクションアイジー OR プロシップ OR プロジェホールディングス OR ブロードリーフ OR ブロードメディア OR ブロードバンドタワー OR フロイント産業)</t>
+  </si>
+  <si>
+    <t>organization (フレンドリー OR フレンテ OR プレナス OR プレック研究所 OR プレス工業 OR プレステージインターナショナル OR プレシジョンシステムサイエンス OR プレサンスコーポレーション OR フレームワークス OR ブレインパッド OR 古野電気 OR フルヤ金属 OR ブルボン)</t>
+  </si>
+  <si>
+    <t>organization (ブルドックソース OR プルデンシャル生命保険 OR プルデンシャルジブラルタファイナンシャル生命保険 OR プルデンシャルホールディングオブジャパン OR プルデンシャルインベストメントマネジメントジャパン OR フルスピード OR フルサト工業 OR フルキャストホールディングス OR フルキャスト OR プリマハム OR ブリヂストンスポーツ OR ブリヂストンサイクル OR ブリヂストンケミテック)</t>
+  </si>
+  <si>
+    <t>organization (ブリヂストン OR ブリストルマイヤーズスクイブ OR ブリストルマイヤーズ OR フリード OR フリージアマクロス OR フランスベッドホールディングス OR フランスベッド OR プラマテルズ OR プラネックスホールディング OR プラネックスコミュニケーションズ OR プラップジャパン OR ぷらっとホーム OR ブラックロックジャパン)</t>
+  </si>
+  <si>
+    <t>organization (プラステク OR プラス OR プラザクリエイト OR ブラザー工業 OR プラコー OR フラクタリスト OR フライングガーデン OR プライムワークス OR プライムポリマー OR プライムシステム OR プライムアースEVエナジー OR プライムリンク OR プライム)</t>
+  </si>
+  <si>
+    <t>organization (フジコピアン OR フジコー OR フジクラ電装 OR フジクラ OR フジオフードシステム OR フジオーゼックス OR フジメディアホールディングス OR フジダイレクトマーケティング OR フジ OR ふじ OR フコクしんらい生命保険 OR フコク OR フクビ化学工業)</t>
+  </si>
+  <si>
+    <t>organization (フクダ電子 OR フクシマフーズ OR ふくおか証券 OR ふくおかフィナンシャルグループ OR フォンテーヌ OR フォルクスワーゲングループジャパン OR フォトロン OR フォトクリエイト OR フォスター電機 OR フォーバルテレコム OR フォーバル OR フォーカスシステムズ OR フォーユー)</t>
+  </si>
+  <si>
+    <t>organization (フィックスターズ OR フィスコ OR フィールズ OR フィードワンホールディングス OR ブイテクノロジー OR ファンドクリエーショングループ OR ファンダンゴ OR ファンコミュニケーションズ OR ファンケル OR ファルテック OR ファルコホールディングス OR ファルコバイオシステムズ OR ファルコSDホールディングス)</t>
+  </si>
+  <si>
+    <t>organization (ファミリーマート OR ファミリー OR ファブリカトヤマ OR ファナック OR ファステップス OR ファインシンター OR ファイナンスオール OR ファイ OR ファーマライズホールディングス OR ファーマライズ OR ファーマホールディング OR ファーマフーズ OR ファースト住建)</t>
+  </si>
+  <si>
+    <t>organization (ファーストリテイリング OR ファーストエスコ OR びわ湖放送 OR びわこ銀行 OR ヒロセ電機 OR ビリングシステム OR ひらまつ OR ヒラノテクシード OR ヒラタ OR ヒラキ OR ヒューリック OR ヒューマンホールディングス OR ヒューマンメタボロームテクノロジーズ)</t>
+  </si>
+  <si>
+    <t>organization (ヒューネット OR ヒューテック OR ビューティ花壇 OR ビューカンパニー OR ひまわりホールディングス OR ひまわりインベストメント OR ヒマラヤ OR ヒビノ OR ヒトコミュニケーションズ OR ビデオリサーチ OR ピップトウキョウ OR ピップ OR ヒップ)</t>
+  </si>
+  <si>
+    <t>organization (ビットアイル OR ピックルスコーポレーション OR ビックカメラ OR 日立オートモティブシステムズ OR ビズネット OR ビスケーホールディングス OR ピジョン OR ビジョン OR ビジネスブレイン太田昭和 OR ビジネスワンホールディングス OR ビジネスワン OR ビジネスブレークスルー OR ビケンテクノ)</t>
+  </si>
+  <si>
+    <t>organization (ピクテ投信投資顧問 OR ピクセラ OR ヒガシマル OR ヒガシトゥエンティワン OR ピエトロ OR ビーマップ OR ピープル OR ビービーネット OR ビーピーカストロール OR ヒーハイスト精工 OR ピーシー橋梁 OR ピーシーデポコーポレーション OR ピーシーエー生命保険)</t>
+  </si>
+  <si>
+    <t>organization (ピーシーエーアセットマネジメント OR ピーエス三菱 OR ビーエスピー OR ビーエスエル OR ピーエイ OR ビーイング OR ピーアンドピー OR ビーアールホールディングス OR ピーシーエー OR ビーエムダブリュー OR ビーエムエル OR ビーエヌピーパリバ銀行 OR ぴあ)</t>
+  </si>
+  <si>
+    <t>organization (バンプレスト OR バンドー化学 OR パンテック OR バンテック OR バンダイロジパル OR バンダイビジュアル OR バンダイネットワークス OR バンダイ OR ハンズマン OR バンクテックジャパン OR バンクオブアメリカエヌエイ OR パワードコム OR パロマ)</t>
+  </si>
+  <si>
+    <t>organization (ハイパー OR バイテック OR ハイデイ日高 OR バイタルネット OR バイタルケーエスケーホールディングス OR バイク王&amp;カンパニー OR パイオン OR パイオラックス OR パイオニア OR バイエル薬品 OR バイエルホールディング OR バイエルクロップサイエンス OR ハーモニックドライブシステムズ)</t>
+  </si>
+  <si>
+    <t>organization (ノバルティスファーマ OR ノダ OR のぞみ証券 OR ノジマ OR ノザワ OR ノーリツ OR ノース OR ノーザントラストグローバルインベストメンツ OR ノエル OR ノエビアホールディングス OR ノエビア OR ノア OR ネポン)</t>
+  </si>
+  <si>
+    <t>organization (ネクストウェア OR ネクスト OR ネクステック OR ネクシィーズ OR ネクサス OR ネオス OR ネオアクシス OR にんべん OR ニレコ OR ニューヨークメロン信託銀行 OR ニューヨークメロン銀行 OR ニューフレアテクノロジー OR ニュートンフィナンシャルコンサルティング)</t>
+  </si>
+  <si>
+    <t>organization (ニッパンレンタル OR ニッパン OR ニッパツ OR ニッチツ OR ニッタン OR ニッタ OR ニッセンホールディングス OR ニッセン OR ニッセイ同和損害保険 OR ニッセイ情報テクノロジー OR ニッセイアセットマネジメント OR ニッセイリース OR ニッセイ)</t>
+  </si>
+  <si>
+    <t>organization (ニチゾウテック OR ニチイ学館 OR ニチアス OR ニコン OR ニイタカ OR ニイウスコー OR ニイウス OR ナンシン OR ナルミヤインターナショナル OR ナラサキ産業 OR ナムコ OR ナブテスコ OR ナブコドア)</t>
+  </si>
+  <si>
+    <t>organization (ナカボーテック OR ナカバヤシ OR ながの東急百貨店 OR ナカノフドー建設 OR ナカニシ OR ナガセ OR ナガイレーベン OR ナカイ OR ナイスクラップ OR ナイス OR ナイガイ OR ナデックス OR ドンキホーテホールディングス)</t>
+  </si>
+  <si>
+    <t>organization (ドンキホーテ OR どん OR ドワンゴ OR トレンドマイクロ OR トレンダーズ OR ドレスナークラインオート証券 OR トレーディア OR トレイダーズ証券 OR トレイダーズホールディングス OR トリニティ工業 OR トリドール OR ドリコム OR トリケミカル研究所)</t>
+  </si>
+  <si>
+    <t>organization (ドリームテクノロジーズ OR ドリームインキュベータ OR ドリームトレインインターネット OR トランスデジタル OR トランスコスモス OR トランザクション OR トランコム OR トラベラー OR トラストワークス OR トラストホールディングス OR トラストパーク OR トラストテック OR トラスト)</t>
+  </si>
+  <si>
+    <t>organization (トモニホールディングス OR トモズ OR トムスエンタテインメント OR トミヤアパレル OR トミタ電機 OR トミタ OR ドミー OR トミー OR トマト銀行 OR トプコン OR トピー工業 OR トナミ運輸 OR トナミホールディングス)</t>
+  </si>
+  <si>
+    <t>organization (ドトールコーヒー OR ドトール日レスホールディングス OR トップカルチャー OR トッパンフォームズ OR トッパンコスモ OR ドッドウエルビーエムエス OR トッキ OR トスネット OR トステム鈴木シャッター OR トスコ OR トシン電機 OR トシングループ OR ドコモシステムズ)</t>
+  </si>
+  <si>
+    <t>organization (トーメンエレクトロニクス OR トーメン OR トーホーフードサービス OR トーホー OR トープラ OR トーハン OR トータルハウジング OR トータルメディカルサービス OR トーソー OR トーセイ OR トーセ OR トーシン OR トーカン)</t>
+  </si>
+  <si>
+    <t>organization (ドイツ銀行 OR ドイチェアセットマネジメント OR デンヨー OR テンポスバスターズ OR テンプホールディングス OR テンプスタッフ OR デンソー OR テンコーポレーション OR デンカ生研 OR テンアライド OR テンアローズ OR テレビ北海道 OR テレビ東京ホールディングス)</t>
+  </si>
+  <si>
+    <t>organization (テセック OR テスコ OR テスク OR デジタルハーツ OR デジタルデザイン OR デジタルスケープ OR デジタルガレージ OR デジタルアドベンチャー OR デジタルアーツ OR デジタルアドバタイジングコンソーシアム OR デジタル OR デサント OR デザインエクスチェンジ)</t>
+  </si>
+  <si>
+    <t>organization (テクモ OR テクマトリックス OR テクノ菱和 OR テクノメディカ OR テクノマセマティカル OR テクノホライゾンホールディングス OR テクノスマート OR テクノスジャパン OR テクノエイト OR テクノアルファ OR テクノアソシエ OR テクノセブン OR テクニカル電子)</t>
+  </si>
+  <si>
+    <t>organization (デオデオ OR テーブルマークホールディングス OR テーブルマーク OR データリンクス OR データホライゾン OR データプレイス OR データアプリケーション OR テーオー小笠原 OR テーオーシー OR テーオーダブリュー OR デウエスタンセラピテクス研究所 OR テイン OR デイリースポーツ社)</t>
+  </si>
+  <si>
+    <t>organization (ティラド OR ティムコ OR デイトナ OR ティップネス OR ディップ OR ディックスクロキ OR テイツー OR ディスコ OR ディジタルメディアプロフェッショナル OR テイクアンドギヴニーズ OR テイカ OR ディーワンダーランド OR ティーライフ)</t>
+  </si>
+  <si>
+    <t>organization (ディーブイエックス OR ディーバ OR ディースリーパブリッシャー OR ディースリー OR ティーガイア OR ディーエムエス OR ディーアンドエムホールディングス OR ティーワイオー OR ディーディーエス OR ティーシーシー OR ディーエヌエー OR ティアック OR ディアライフ)</t>
+  </si>
+  <si>
+    <t>organization (ティア OR デイシイ OR テイエステック OR デウエスタンセラピテクス研究所 OR ツルハホールディングス OR ツルハ OR ツルカメコーポレーション OR ツムラ OR ツバキナカシマ OR ツノダ OR ツネイシホールディングス OR ツツミ OR ツクイ)</t>
+  </si>
+  <si>
+    <t>organization (ツカモトコーポレーション OR ツガミ OR ツーカーセルラー東京 OR ツヴァイ OR ツインバード工業 OR チヨダウーテ OR チヨダ OR 中央物産 OR 中央製作所 OR 中央自動車工業 OR 中央魚類 OR チャコット OR チャームケアコーポレーション)</t>
+  </si>
+  <si>
+    <t>organization (タウンニュース社 OR ダヴィンチホールディングス OR ダウケミカル日本 OR ダイワボウホールディングス OR ダイワボウ OR ダイワハウスリニュー OR ダイワサービス OR タイヨー OR ダイユーエイト OR ダイヤ通商 OR ダイヤモンド電機 OR ダイヤモンド工業 OR ダイヤモンドテレコム)</t>
+  </si>
+  <si>
+    <t>organization (ソルコム OR ソルクシーズ OR ソリトンシステムズ OR ソラン OR ソマール OR ソフマップ OR ソフトマックス OR ソフトブレーン OR ソフトバンクモバイル OR ソフトバンクテレコム OR ソフトバンクコマース＆サービス OR ソフトバンクBB OR ソフトバンクテクノロジー)</t>
+  </si>
+  <si>
+    <t>organization (ソフトバンク OR ソフトクリエイトホールディングス OR ソフトクリエイト OR ソフトウェアサービス OR ソフト99コーポレーション OR ソフィアホールディングス OR ソフィアシステムズ OR ソノコム OR ソネットエンタテインメント OR ソネット OR ソネック OR ソニーライフエイゴン生命保険 OR ソニーファイナンスインターナショナル)</t>
+  </si>
+  <si>
+    <t>organization (ソニービジネスソリューション OR ソニーグローバルソリューションズ OR ソニーミュージックエンタテインメント OR ソニーコンピュータエンタテインメント OR ソニー OR ソトー OR ソディックハイテック OR ソディック OR ソシエテジェネラル証券 OR ソシエテジェネラル銀行 OR そごう西武 OR そごう OR ソケッツ)</t>
+  </si>
+  <si>
+    <t>organization (ソキアトプコン OR ソキア OR ソーラーフロンティア OR ソーバル OR ソーテック OR ソーダニッカ OR そーせいグループ OR そーせい OR ソースネクスト OR ゼンリン OR セントラル短資 OR セントラル総合開発 OR セントラル硝子)</t>
+  </si>
+  <si>
+    <t>organization (セントラルユニ OR セントラルファイナンス OR セントラルスポーツ OR セントラルサービスシステム OR セントケアホールディング OR セントケア OR ゼンテックテクノロジージャパン OR センチュリー21ジャパン OR ゼンショーホールディングス OR ゼンショー OR センコン物流 OR センコー OR ゼンケンホールディングス)</t>
+  </si>
+  <si>
+    <t>organization (ゼロ OR セレブリックス OR セレスポ OR セルシス OR ゼリア新薬工業 OR セリア OR セラーテムテクノロジー OR セメダイン OR セブン工業 OR セブン銀行 OR セブンーイレブンジャパン OR セブンシーズホールディングス OR セブンCSカードサービス)</t>
+  </si>
+  <si>
+    <t>organization (セブンフィナンシャルサービス OR セブンカードサービス OR セブン&amp;アイホールディングス OR セブン&amp;アイフードシステムズ OR セフテック OR セプテーニホールディングス OR セプテーニ OR ゼファーマ OR ゼファー OR ゼビオ OR ゼネラルパッカー OR ゼネラル OR ゼニス羽田)</t>
+  </si>
+  <si>
+    <t>organization (ゼクス OR ゼクー OR 積和不動産中部 OR セキュアヴェイル OR セキュアードキャピタルジャパン OR セキテクノトロン OR セキチュー OR セキスイハイム不動産 OR セキスイハイム東北 OR セキスイハイム九州 OR セキ OR セカンドストリート OR セガ)</t>
+  </si>
+  <si>
+    <t>organization (セイコー OR セイクレスト OR ゼィープラス OR スルガ銀行 OR スルガコーポレーション OR スルガ OR スリーボンド OR スリープログループ OR スリープロ OR スリーエムジャパン OR スリーエフ OR スリーディーマトリックス OR すみや)</t>
+  </si>
+  <si>
+    <t>organization (スミテックスインターナショナル OR スミダコーポレーション OR スミセイ情報システム OR スペースシャワーネットワーク OR スペース OR スパンクリートコーポレーション OR スバル興業 OR スパイア OR ストリーム OR ストライダーズ OR ステラケミファ OR ステップ OR すてきナイスグループ)</t>
+  </si>
+  <si>
+    <t>organization (ステートストリート信託銀行 OR スタンレー電気 OR スタジオアリス OR スタイライフ OR スター精密 OR スターホールディングス OR スターフライヤー OR スターバックスコーヒージャパン OR スタートトゥデイ OR スターティア OR スターツ出版 OR スターツコーポレーション OR スターツ)</t>
+  </si>
+  <si>
+    <t>organization (スターゼン OR スターキャットケーブルネットワーク OR スターマイカ OR スズケン OR スズキ OR スクロール OR スクウェアエニックスホールディングス OR スクウェアエニックス OR スギ薬局 OR スカパーJSATホールディングス OR スカパーJSAT OR スガテック OR スガイ化学工業)</t>
+  </si>
+  <si>
+    <t>organization (すかいらーく OR スカイマーク OR スカイネットアジア航空 OR スーパー大栄 OR スーパーバリュー OR スーパーバッグ OR スーパーツール OR シンワオックス OR シンワアートオークション OR シンワ OR シンポ OR シンプレクスホールディングス OR シンプレクスインベストメントアドバイザーズ)</t>
+  </si>
+  <si>
+    <t>organization (シンフォニアテクノロジー OR シンバイオ製薬 OR シンニッタン OR シンジェンタジャパン OR シンジーテック OR シンクレイヤ OR しんきん信託銀行 OR しんきん証券 OR シンキ OR シロキ工業 OR シルバー精工 OR シライ電子工業 OR ジョンソンエンドジョンソン)</t>
+  </si>
+  <si>
+    <t>organization (ジュンテンドー OR シュローダー証券投信投資顧問 OR シュローダーインベストメントマネジメント OR ジュピターテレコム OR ジューテックホールディングス OR ジューテック OR ジャレコ OR シャルレ OR ジャルパック OR ジャルセールス OR ジャルコ OR ジャムコ OR ジャフコ)</t>
+  </si>
+  <si>
+    <t>organization (ジャパン建材 OR ジャパンワクチン OR ジャパンマリンユナイテッド OR ジャパンマテリアル OR ジャパンフーズ OR ジャパンパイル OR ジャパンディスプレイ OR ジャパンシステム OR ジャパンケアサービスグループ OR ジャパンエポキシレジン OR ジャパンエナジー OR ジャパンフード&amp;リカーアライアンス OR ジャパンデジタルコンテンツ信託)</t>
+  </si>
+  <si>
+    <t>organization (ジャパンデジタルコンテンツ OR ジャパンティッシュエンジニアリング OR ジャパンエアガシズ OR ジャニス工業 OR ジャックス OR シヤチハタ OR ジャストプランニング OR ジャストシステム OR ジャステック OR ジャスダック証券取引所 OR ジャスダック OR シャクリーグローバルグループ OR シャープ)</t>
+  </si>
+  <si>
+    <t>organization (じもとホールディングス OR シモジマ OR シミック OR しまむら OR シマノ OR 島津製作所 OR シマダヤ OR シベール OR ジプロ OR ジブラルタ生命保険 OR ジパングホールディングス OR ジパング OR シノブフーズ)</t>
+  </si>
+  <si>
+    <t>organization (シノケングループ OR シノケン OR シニアコミュニケーション OR シナネン OR シナジーマーケティング OR シティトラスト信託銀行 OR シティコープ証券 OR シティグループ証券 OR シティグループジャパンホールディングス OR シップヘルスケアホールディングス OR ジップドラッグ OR シチズン電子 OR シチズン時計マニュファクチャリング)</t>
+  </si>
+  <si>
+    <t>organization (シチズン時計 OR シチズンマシナリー OR シチズンホールディングス OR シチズンファインテックミヨタ OR シチズンファインテック OR シチズンシービーエム OR シチズンシステムズ OR シダックス OR シダー OR シスメックス国際試薬 OR シスメックス OR システム情報 OR システムリサーチ)</t>
+  </si>
+  <si>
+    <t>organization (システムプロ OR システムディ OR システムソフト OR システムズデザイン OR システムインテグレータ OR システムロケーション OR システナ OR シスコシステムズ OR シスウェーブ OR シコー OR シグマ光機 OR ジグノシステムジャパン OR ジクト)</t>
+  </si>
+  <si>
+    <t>organization (シキボウ OR ジオマテック OR ジオスター OR シェル石油 OR シェルケミカルズジャパン OR ジェネラスコーポレーション OR ジェネシステクノロジー OR ジェトロニクス OR ジェット証券 OR ジェコス OR ジェコー OR ジェクシード OR ジェーソン)</t>
+  </si>
+  <si>
+    <t>organization (ジェーシービー OR ジェーシーコムサ OR ジェイホールディングス OR ジェイホーム OR ジェイプロジェクト OR ジェイフィルム OR ジェイテック OR ジェイテクト OR ジェイス OR ジェイコム OR ジェイグループホールディングス OR ジェイオー建設 OR ジェイオーグループホールディングス)</t>
+  </si>
+  <si>
+    <t>organization (ジェイエムテクノロジー OR ジェイエスエス OR ジェイエイシーリクルートメント OR ジェイアイ傷害火災保険 OR ジェイアイエヌ OR ジェイブリッジ OR ジェイプランニング OR ジェイエスコムホールディングス OR ジェイエーエー OR ジーンテクノサイエンス OR ジーンズメイト OR シーマ OR シーボン)</t>
+  </si>
+  <si>
+    <t>organization (シード OR ジーテクト OR シーティーエス OR ジーダット OR シーズメン OR シーズクリエイト OR シーシーエス OR シークス OR シーキューブ OR ジーエルサイエンス OR シイエムシイ OR ジーエフシー OR シーエヌエー)</t>
+  </si>
+  <si>
+    <t>organization (ジーエヌアイグループ OR ジーエヌアイ OR シーエス薬品 OR シーエスロジネット OR シーエスアイ OR ジーエスユアサマニュファクチュアリング OR ジーエスユアサバッテリー OR ジーエスユアサコーポレーション OR ジーエスユアサインダストリー OR シーエーシー OR シーイーシー OR シーアンドエス OR シーアイ化成)</t>
+  </si>
+  <si>
+    <t>organization (ジーモード OR ジーネットワークス OR ジートレーディング OR ジーテイスト OR ジーエフ OR シーヴイエスベイエリア OR サン電子 OR サン建材 OR サンワテクノス OR サンワコムシスエンジニアリング OR サンリン OR サンリツ OR サンリオ)</t>
+  </si>
+  <si>
+    <t>organization (サンライズテクノロジー OR サンヨーホームズ OR サンヨーハウジング名古屋 OR サンユー建設 OR サンユウ OR サンメッセ OR サンマルクホールディングス OR サンマルクカフェ OR サンマルク OR サンポット OR サンフロンティア不動産 OR サンビシ OR サントリー食品インターナショナル)</t>
+  </si>
+  <si>
+    <t>organization (サンケイビル OR サンクスジャパン OR サンキ OR サンオータス OR サンエツ金属 OR サンエス OR サンエコサーマル OR サンエー化研 OR サンエーインターナショナル OR サンエー OR サンウッド OR サンウエーブ工業 OR サンアロマー)</t>
+  </si>
+  <si>
+    <t>organization (サンライフ OR サンマイクロシステムズ OR サンジャパン OR サムティ OR サムシングホールディングス OR サムコ OR サミット OR サミーネットワークス OR サミー OR サマンサタバサジャパンリミテッド OR サハダイヤモンド OR サノヤス造船 OR サノヤスホールディングス)</t>
+  </si>
+  <si>
+    <t>organization (サノヤスライド OR サノヤスヒシノ明昌 OR サニックス OR サニーサイドアップ OR サトレストランシステムズ OR サトーホールディングス OR サトー OR サッポロ不動産開発 OR サッポロ飲料 OR サッポロライオン OR サッポロホールディングス OR サッポロビール OR サッポロドラッグストアー)</t>
+  </si>
+  <si>
+    <t>organization (サカイオーベックス OR さかい OR ザインエレクトロニクス OR サイレックステクノロジー OR サイボー OR サイボウズ OR サイバネットシステム OR サイバーファーム OR サイバード OR サイバーステップ OR サイバーコム OR サイバーエージェント OR サイネックス)</t>
+  </si>
+  <si>
+    <t>organization (サイタホールディングス OR サイゼリヤ OR さいか屋 OR ザイオン OR サイオステクノロジー OR サーラ住宅 OR サーラコーポレーション OR サービスウェアコーポレーション OR サークルKサンクス OR ザパック OR コンフェックス OR コンピュータウェーブ OR コンビ)</t>
+  </si>
+  <si>
+    <t>organization (コンドーテック OR コンテック OR ゴンゾ OR コンセック OR コロワイド東日本 OR コロワイド西日本 OR コロワイド OR コロプラ OR コロナ OR ゴルフパートナー OR ゴルフダイジェストオンライン OR ゴルフドゥ OR コモ)</t>
+  </si>
+  <si>
+    <t>organization (コメ兵 OR コメリ OR ゴメスコンサルティング OR コムテック OR コムチュア OR コムシスホールディングス OR コムシード OR コマニー OR コマツ物流 OR コマツ産機 OR コマツユーティリティ OR コマツハウス OR コマツエンジニアリング)</t>
+  </si>
+  <si>
+    <t>organization (コマツNTC OR コマツ OR コマーシャルアールイー OR コマスタジアム OR コベルコ建機 OR コベルコ科研 OR コベルコマテリアル銅管 OR コベルコシステム OR コベルコクレーン OR コネクトテクノロジーズ OR コネクシオ OR コニシ OR コニカミノルタヘルスケア)</t>
+  </si>
+  <si>
+    <t>organization (コナミコンピュータエンタテインメントジャパン OR コナミ OR コナカ OR ゴトー OR コックス OR コダック OR コタ OR コスモ石油 OR コスモ証券 OR コスモス薬品 OR コスモスイニシア OR コスモバイオ OR コジマ)</t>
+  </si>
+  <si>
+    <t>organization (コシダカホールディングス OR コシダカ OR こころネット OR ココスジャパン OR ココカラファインホールディングス OR ココカラファインヘルスケア OR ココカラファイン OR コクヨファニチャー OR コクヨS&amp;T OR コクヨ OR コクド OR コカコーラボトリング OR コカコーラウエストジャパン)</t>
+  </si>
+  <si>
+    <t>organization (コカコーラウエスト OR コカコーライーストジャパン OR ゴールドマンサックス証券 OR ゴールドマンサックスアセットマネジメント OR ゴールドパック OR ゴールドクレスト OR ゴールドウイン OR コープケミカル OR コーナン商事 OR コーセル OR コーセーアールイー OR コーセー OR コーコス信岡)</t>
+  </si>
+  <si>
+    <t>organization (ケーズホールディングス OR ケーエスケー OR ケーエフシー OR ケイミュー OR ケイブ OR ケイヒン OR けいはんなバスホールディングス OR ケイティケイ OR ケイエス冷凍食品 OR ケアネット OR ケアサービス OR ケア21 OR グンゼ高分子)</t>
+  </si>
+  <si>
+    <t>organization (グンゼ OR クワザワ OR クロニクル OR クロップス OR クロスプラス OR クロスマーケティンググループ OR クロスマーケティング OR くろがね工作所 OR くろがねや OR グローリー OR グローべルス OR グローベルス OR グローブライド)</t>
+  </si>
+  <si>
+    <t>organization (グローバルダイニング OR グローバルアソシエイツ OR グローバルアクト OR グローバリー OR グローウェルホールディングス OR クレハ OR クレディセゾン OR クレディア OR クレディスイス証券 OR クレディスイス銀行 OR クレックス OR クレストインベストメンツ OR クレスコ)</t>
+  </si>
+  <si>
+    <t>organization (クレシア OR クレオ OR グレース OR クレアホールディングス OR グルメ杵屋 OR ぐるなび OR クリヤマ OR クリムゾン OR グリムス OR クリナップ OR クリップコーポレーション OR クリエートメディック OR クリエイトエスディー)</t>
+  </si>
+  <si>
+    <t>organization (クリエイトSDホールディングス OR クリエイトレストランツホールディングス OR クリエイトレストランツ OR クリエイト OR クリエイティブ OR クリエアナブキ OR グリーンランドリゾート OR グリーンホスピタルサプライ OR グリーンフーズ OR グリーンハウス OR グリーンクロス OR クリード OR クリークアンドリバー社)</t>
+  </si>
+  <si>
+    <t>organization (クラシエホールディングス OR クラシエホームプロダクツ OR クラシエフーズ OR くらコーポレーション OR グラクソスミスクライン OR クラウドゲート OR クラウディア OR クミアイ化学工業 OR クボテック OR クボタ松下電工外装 OR クボタ OR クノール食品 OR クニミネ工業)</t>
+  </si>
+  <si>
+    <t>organization (キタムラ OR キタック OR キグナス石油 OR キクカワエンタープライズ OR ギガプライズ OR ギガス OR キーコーヒー OR キーエンス OR キーウェアソリューションズ OR キーウェァソリューションズ OR かんぽ生命保険 OR ガンホーオンラインエンターテイメント OR カンボウプラス)</t>
+  </si>
+  <si>
+    <t>organization (カワサキプレシジョンマシナリ OR カワサキプラントシステムズ OR カワサキ OR カルピス OR カルビー OR カルナバイオサイエンス OR カルチュアコンビニエンスクラブ OR カルソニックカンセイ OR ガリバーインターナショナル OR カラカミ観光 OR カヤバ工業 OR 鴨川グランドホテル OR カメイ)</t>
+  </si>
+  <si>
+    <t>organization (カナデン OR カナック OR かどや製油 OR カッシーナイクスシー OR カスミ OR ガステックサービス OR カシオ計算機 OR カシオマイクロニクス OR かざか証券 OR カゴメ OR カカクコム OR カウボーイ OR カイノス)</t>
+  </si>
+  <si>
+    <t>organization (カイジョー OR カイゲンファーマ OR カイゲン OR カイオムバイオサイエンス OR カーリットホールディングス OR ガーラ OR カーメイト OR カーマ OR カーディフ生命保険 OR カーディナル OR カーチス OR オンワード樫山 OR オンワードホールディングス)</t>
+  </si>
+  <si>
+    <t>organization (オンリー OR オンコリスバイオファーマ OR オンコセラピーサイエンス OR オンキヨーサウンド&amp;ビジョン OR オンキヨー OR オルビス OR オルトプラス OR オルガノ OR オリンピック OR オリンパスメディカルシステムズ OR オリンパス OR オリバー OR オリックス不動産)</t>
+  </si>
+  <si>
+    <t>organization (オリックス生命保険 OR オリックス証券 OR オリックス自動車 OR オリックス債権回収 OR オリックス銀行 OR オリックスレンテック OR オリックスファシリティーズ OR オリックスクレジット OR オリックスインテリア OR オリックスアルファ OR オリックス OR オリジン東秀 OR オリジン電気)</t>
+  </si>
+  <si>
+    <t>organization (オプトエレクトロニクス OR オプト OR オプテックスエフエー OR オプテックス OR オハラ OR オックスホールディングス OR オストジャパングループ OR オザックス OR オギハラ OR オカモト OR オカダアイヨン OR オールアバウト OR オーミケンシ)</t>
+  </si>
+  <si>
+    <t>organization (オークワ OR オークマ OR オークネット OR オーク OR オーエム製作所 OR オーエムツーネットワーク OR オーエムシーカード OR オーエス OR オーエーシステムプラザ OR オーウイル OR オーイズミ OR オーエイチティー OR オエノンホールディングス)</t>
+  </si>
+  <si>
+    <t>organization (オウケイウェイヴ OR オイレス工業 OR エンプラス OR エンビプロホールディングス OR エンチョー OR エンシュウ OR エンカレッジテクノロジ OR エンジャパン OR エレマテック OR エレコム OR ニチコン OR エルメ OR エルビー)</t>
+  </si>
+  <si>
+    <t>organization (エルナー OR エルセナ OR エルクリエイト OR エルクコーポレーション OR エルシーエーホールディングス OR エリアリンク OR エリアクエスト OR エムビーエス OR エムティジェネックス OR エムティーアイ OR エムジーホーム OR エムケー精工 OR エムエックス)</t>
+  </si>
+  <si>
+    <t>organization (エムエスティ保険サービス OR エムアンドエヌホールディングス OR エムアップ OR エムユーフロンティア債権回収 OR エムピーテクノロジーズ OR エムエイチグループ OR エポスカード OR エフワン OR エフピコ OR エフテック OR エフティコミュニケーションズ OR エプソン販売 OR エプコ)</t>
+  </si>
+  <si>
+    <t>organization (エフエム大阪 OR エフアンドエム OR エフディシィプロダクツ OR エフジェーネクスト OR エフシーシー OR エフエフシー OR エバラ食品工業 OR エバタ OR エノモト OR エノテカ OR エネサーブ OR エネゲート OR エヌエフ回路設計ブロック)</t>
+  </si>
+  <si>
+    <t>organization (エヌエス環境 OR エヌエスリース OR エヌアイデイ OR エヌアイシオートテック OR エヌデーソフトウェア OR エヌティティ都市開発 OR エヌティティデータイントラマート OR エヌイーケムキャット OR エニグモ OR エナリス OR エナジーサポート OR エディオンEAST OR エディオン)</t>
+  </si>
+  <si>
+    <t>organization (エッチケーエス OR エックスネット OR エスラインギフ OR エスライン OR エスペック OR エスプール OR エスフーズ OR エスビー食品 OR エストラスト OR エステール OR エステー OR エスティック OR エスケー化研)</t>
+  </si>
+  <si>
+    <t>organization (エスケーエレクトロニクス OR エスケーアイ OR エスケイジャパン OR エスクローエージェントジャパン OR エスクリ OR エスグラントコーポレーション OR エスエス製薬 OR エスエス環境 OR エスイー OR エスアール開発 OR エスアールジータカミヤ OR エスアールエル OR エスバイエル)</t>
+  </si>
+  <si>
+    <t>organization (エスディーエスバイオテック OR エスサイエンス OR エスエムエス OR エスイーラボ OR エスイーエス OR エコナックホールディングス OR エコナック OR エコス OR エコグリーン OR エコートレーディング OR エクソンモービル OR エクセル OR エクセディ)</t>
+  </si>
+  <si>
+    <t>organization (エクシム OR エキサイト OR エーワン精密 OR エームサービス OR エービーシーマート OR エービーエヌアムロ証券 OR エーピーアイコーポレーション OR エーティーエルシステムズ OR エース損害保険 OR エース証券 OR エース交易 OR エースホールディングス OR エージーピー)</t>
+  </si>
+  <si>
+    <t>organization (エーザイ OR エーアンドエーマテリアル OR エーアイテイー OR エーピーカンパニー OR エーディーワークス OR エーディエム OR エーアンドデイ OR エーアンドアイシステム OR エイボンプロダクツ OR エイベックスデジタル OR エイベックスエンタテインメント OR エイペックス OR エイベックス)</t>
+  </si>
+  <si>
+    <t>organization (エイブル OR エイト日本技術開発 OR エイデン OR エイティング OR エイチワン OR エイチーム OR エイチアンドエフ OR エイチアイ OR エイチツーオーリテイリング OR エイチエス証券 OR エイチアイエス OR エイジス OR エイジア)</t>
+  </si>
+  <si>
+    <t>organization (エイケン工業 OR エイアンドティー OR エアーニッポン OR エアウォーター防災 OR エアウォーター OR ウルシステムズ OR ウライ OR ウニクレディト銀行 OR ウツミ屋証券 OR ウッドワン OR ウッドランド OR ウッドフレンズ OR ウチダエスコ)</t>
+  </si>
+  <si>
+    <t>organization (ウシオ電機 OR うかい OR ウォルマートジャパンホールディングス OR うおいち OR ウェルネット OR ウェルズファーゴ銀行 OR ウエルシアホールディングス OR ウェブマネー OR ウェブクルー OR ウェッズ OR ウェッジホールディングス OR ウエストホールディングス OR ウエスト)</t>
+  </si>
+  <si>
+    <t>organization (ウエスコホールディングス OR ウエスコ OR ウェザーニューズ OR ウェーブロックホールディングス OR ウェアハウス OR ウインテスト OR ヴィンクス OR ウインパートナーズ OR ウインインターナショナル OR ウィン OR ヴィレッジヴァンガードコーポレーション OR ウィルソンラーニングワールドワイド OR ウィルコム)</t>
+  </si>
+  <si>
+    <t>organization (ウイルコホールディングス OR ウイルコ OR ウイルコーポレーション OR ウィル OR ウィズ OR ウィザス OR ウィーヴ OR ヴィアホールディングス OR ヴァリック OR インボイス OR インベスコアセットマネジメント OR インプレスホールディングス OR インプレス)</t>
+  </si>
+  <si>
+    <t>organization (インフォメーションクリエーティブ OR インフォメーションディベロプメント OR インフォマート OR インフォテリア OR インフォコム OR インネクスト OR イントランス OR インテリックス OR インテリジェントウェイブ OR インテリジェンス OR インテックホールディングス OR インデックス OR インテックシステム研究所)</t>
+  </si>
+  <si>
+    <t>organization (インテック OR インテージホールディングス OR インテージ OR インテアホールディングス OR インターライフホールディングス OR インターネット総合研究所 OR インターネットセキュリティシステムズ OR インターネットイニシアティブ OR インターニックス OR インタートレード OR インタースペース OR インターアクション OR インター)</t>
+  </si>
+  <si>
+    <t>organization (インスペック OR インスパイアー OR インサイト OR インヴァスト証券 OR イワブチ OR イワキ OR イリソ電子工業 OR イメージ情報開発 OR イメージワン OR イムラ封筒 OR イマジニア OR イマジカロボットホールディングス OR イマジカ)</t>
+  </si>
+  <si>
+    <t>organization (イオンディライト OR イオンクレジットサービス OR イオン OR イエローハット OR いい生活 OR イーラックス OR イーブックイニシアティブジャパン OR イーピーエス OR イーネットジャパン OR イーデザイン損害保険 OR イーディーコントライブ OR イーター電機工業 OR イーストンエレクトロニクス)</t>
+  </si>
+  <si>
+    <t>organization (イーストスプリングインベストメンツ OR イーシステム OR イーシーワン OR イーサポートリンク OR イーコンテクスト OR イーグル工業 OR イーエムシステムズ OR イーウェーヴ OR イーレヴォリューション OR イーモバイル OR イーギャランティ OR イーキャッシュ OR イーガーディアン)</t>
+  </si>
+  <si>
+    <t>organization (イギャランティ OR アンリツ OR アンドール OR アンデルセンパン生活文化研究所 OR アンジェスMG OR アヲハタ OR アロカ OR アルメタックス OR アルペン OR アルフレッサ OR アルプス物流 OR アルプス電気 OR アルプス技研)</t>
+  </si>
+  <si>
+    <t>organization (アルファシステムズ OR アルファグループ OR アルファクスフードシステム OR アルファ OR アルビス OR アルバック OR アルバイトタイムス OR アルトナー OR アルデプロ OR アルテック OR アルテサロンホールディングス OR アルティア橋本 OR アルティア)</t>
+  </si>
+  <si>
+    <t>organization (アラビア石油 OR あらた OR アライドマテリアル OR アライドハーツホールディングス OR アライドテレシスホールディングス OR アライヴコミュニティ OR アライアンスバーンスタイン OR アムンディジャパン OR アムスライフサイエンス OR アムスク OR アミューズ OR あみやき亭 OR アミタ)</t>
+  </si>
+  <si>
+    <t>organization (アトム OR アトミクス OR アドバンテッジリスクマネジメント OR アドバンテスト OR アドバンストメディア OR アドバンスクリエイト OR アドバネクス OR アドバックス OR アドテックプラズマテクノロジー OR アドテックス OR アドテックエンジニアリング OR アドテック OR アドソル日進)</t>
+  </si>
+  <si>
+    <t>organization (アドウェイズ OR アドヴァン OR アドアーズ OR アデランス OR アテナ工業 OR アデコ OR アップルインターナショナル OR アップガレージ OR アップ OR アツギ OR アッカネットワークス OR アタカ大機 OR アソシエントテクノロジー)</t>
+  </si>
+  <si>
+    <t>organization (アゼル OR アセットマネジャーズ OR アセットインベスターズ OR アゼアス OR アズワン OR アスモ OR あずみ OR アズマハウス OR アズビル金門 OR アズビル OR アストモスエネルギー OR アストマックストレーディング OR アストマックス)</t>
+  </si>
+  <si>
+    <t>organization (アステラス製薬 OR アスティス OR アスティ OR アズジェント OR アスコット OR アスクル OR アスキー OR あすか製薬 OR アスカネット OR アスカ OR アジレントテクノロジー OR アシックス商事 OR アシックス)</t>
+  </si>
+  <si>
+    <t>organization (アサックス OR アサツーディケイ OR アサカ理研 OR アサガミ OR アコム OR アゴーラホスピタリティーグループ OR アコーディアゴルフ OR アクロス商事 OR アグロカネショウ OR アグレックス OR アクリフーズ OR アクリーティブ OR アクモス)</t>
+  </si>
+  <si>
+    <t>organization (アイネット OR アイネス OR アイナボホールディングス OR アイディホーム OR アイティフォー OR アイチコーポレーション OR アイダエンジニアリング OR アイセイ薬局 OR アイスタイル OR アイシン精機 OR アイシン高丘 OR アイシンエィダブリュ OR アイサンテクノロジー)</t>
+  </si>
+  <si>
+    <t>organization (アイコム OR アイコーポレーション OR アイケイ OR アイカ工業 OR あいおい生命保険 OR あいおいニッセイ同和損害保険 OR アイエヌジー投信 OR アイエヌジーバンクエヌヴイ OR アイエックスナレッジ OR アイエス精機 OR アイエーグループ OR アイエー OR アイユーケイ)</t>
+  </si>
+  <si>
+    <t>organization (アイピーエス OR アイビーイー OR アイテック OR アイティーテレコム OR アイティーシーネットワーク OR アイシーエフ OR アイケイケイ OR アイオーデータ機器 OR アイエムジェイ OR アイエムアイ OR アイエックスアイ OR アイエスピー OR アイエスビー)</t>
+  </si>
+  <si>
+    <t>organization (アイエイチアイマリンユナイテッド OR アイアールジャパン OR アーレスティ OR アールワイフードサービス OR アールビバン OR アールテックウエノ OR アールシーコア OR アールエイジ OR アールエフラジオ日本 OR アーム電子 OR アーバンライフ OR アーバンコーポレイション OR アーバネットコーポレーション)</t>
+  </si>
+  <si>
+    <t>organization (SJI OR SHOEI OR SHO-BI OR SGホールディングス OR SEホールディングスアンドインキュベーションズ OR SEMITEC OR SECカーボン OR SDホールディングス OR SDエンターテイメント OR SCSK OR SCREENホールディングス OR SCREENファインテックソリューションズ OR SCREENセミコンダクターソリューションズ)</t>
+  </si>
+  <si>
+    <t>organization (NTTファイナンス OR NTTドコモ OR NTTデータイントラマート OR NTTデータ OR NTTタウンページ OR NTT OR NTN OR NSユナイテッド海運 OR NSW OR NSK販売 OR NSD OR NREG東芝不動産 OR NowLoading)</t>
+  </si>
+  <si>
+    <t>organization (NECキャピタルソリューション OR NECエンジニアリング OR NECアクセステクニカ OR NEC OR NDS OR NDB OR NCT信託銀行 OR NCS&amp;A OR NBCメッシュテック OR NBC OR NaITO OR Nフィールド OR MXモバイリング)</t>
+  </si>
+  <si>
+    <t>organization (KYCOMホールディングス OR KYB OR KTグループ OR KSK OR KOA OR KNTーCTホールディングス OR KLab OR KIホールディングス OR KISCO OR KHネオケム OR KG情報 OR KDDI OR KADOKAWADWANGO)</t>
+  </si>
+  <si>
+    <t>organization (JSC OR JSAT OR JPモルガン証券 OR JPモルガンアセットマネジメント OR JPホールディングス OR JPNホールディングス OR JNC石油化学 OR JNC OR JKホールディングス OR Jーオイルミルズ OR JーWAVE OR JIMOS OR JIEC)</t>
+  </si>
+  <si>
+    <t>organization (JCLバイオアッセイ OR JBイレブン OR JBISホールディングス OR JBCCホールディングス OR JBCC OR JA三井リース OR JALホテルズ OR JALUX OR JALCOホールディングス OR Jフロントリテイリング OR J&amp;Kカーエレクトロニクス OR J フロントリテイリング OR ITサービス)</t>
+  </si>
+  <si>
+    <t>organization (ITX OR ITbook OR IMV OR IMAGICA OR IJTテクノロジーホールディングス OR IHI回転機械 OR IHI運搬機械 OR IHIターボ OR IHIシバウラ OR IHIエアロスペース OR IHIインフラシステム OR IHI OR IHGANAホテルズグループジャパン)</t>
+  </si>
+  <si>
+    <t>organization (fonfun OR FM802 OR FDK OR FCM OR Eストアー OR ERIホールディングス OR enish OR ENEOSフロンティア OR EMIミュージックジャパン OR EMGマーケティング OR EMCジャパン OR EMCOMホールディングス OR EJビジネスパートナーズ)</t>
+  </si>
+  <si>
+    <t>organization (EIZO OR eーまちタウン OR ECI OR eBASE OR EJホールディングス OR DTS OR DPGホールディングス OR DOWAホールディングス OR Dole International Holdings OR DNライティング OR DNP西日本 OR DMG森精機 OR DICグラフィックス)</t>
+  </si>
+  <si>
+    <t>organization (C&amp;I　Holdings OR C&amp;Gシステムズ OR BSジャパン OR BNYメロンアセットマネジメントジャパン OR BNPパリバ証券 OR BNPパリバインベストメントパートナーズ OR BMB OR BC OR BーRサーティワンアイスクリーム OR BBH OR au損害保険 OR ATグループ OR ASTI)</t>
+  </si>
+  <si>
+    <t>organization (ASーSZKi OR Asーmeエステール OR ASK　PLANNING　CENTER OR ASJ OR AQインタラクティブ OR AOKIホールディングス OR AOI　Pro. OR ANAホテルズ&amp;リゾーツ OR ANAホールディングス OR ANAP OR AMBITION OR AIU損害保険 OR AIGジャパンホールディングス)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1550,7 +1557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1558,7 +1565,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1844,9 +1851,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A499"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A499"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2020,2330 +2029,2332 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>315</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>316</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>320</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>323</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>324</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>325</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>327</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>328</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>329</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>331</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>332</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>333</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>334</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>335</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>336</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>337</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>338</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>199</v>
+        <v>339</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>340</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>240</v>
+        <v>341</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>241</v>
+        <v>342</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>246</v>
+        <v>343</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>247</v>
+        <v>344</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>345</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>250</v>
+        <v>346</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>252</v>
+        <v>347</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>253</v>
+        <v>348</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>254</v>
+        <v>349</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>255</v>
+        <v>350</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>256</v>
+        <v>351</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>258</v>
+        <v>352</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>259</v>
+        <v>353</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>260</v>
+        <v>354</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>261</v>
+        <v>355</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>263</v>
+        <v>356</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>264</v>
+        <v>357</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>266</v>
+        <v>358</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>268</v>
+        <v>359</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>272</v>
+        <v>361</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>276</v>
+        <v>363</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>279</v>
+        <v>364</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>280</v>
+        <v>219</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>282</v>
+        <v>220</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>283</v>
+        <v>366</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>284</v>
+        <v>221</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>285</v>
+        <v>367</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>222</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>287</v>
+        <v>368</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>288</v>
+        <v>369</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>289</v>
+        <v>370</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>290</v>
+        <v>371</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>291</v>
+        <v>372</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>292</v>
+        <v>223</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>293</v>
+        <v>224</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>294</v>
+        <v>373</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>295</v>
+        <v>374</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>296</v>
+        <v>225</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>297</v>
+        <v>375</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>298</v>
+        <v>376</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>299</v>
+        <v>377</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>300</v>
+        <v>378</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>301</v>
+        <v>379</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>302</v>
+        <v>380</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>303</v>
+        <v>381</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>306</v>
+        <v>227</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>307</v>
+        <v>228</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>308</v>
+        <v>229</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>309</v>
+        <v>230</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>310</v>
+        <v>231</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>311</v>
+        <v>383</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>312</v>
+        <v>232</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>313</v>
+        <v>384</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>314</v>
+        <v>233</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>315</v>
+        <v>385</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>316</v>
+        <v>234</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>317</v>
+        <v>386</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>318</v>
+        <v>235</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>319</v>
+        <v>236</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>320</v>
+        <v>387</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>321</v>
+        <v>237</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>322</v>
+        <v>388</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>324</v>
+        <v>390</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>325</v>
+        <v>238</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>326</v>
+        <v>391</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>327</v>
+        <v>392</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>328</v>
+        <v>239</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>329</v>
+        <v>393</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>330</v>
+        <v>240</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>331</v>
+        <v>394</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>332</v>
+        <v>241</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>333</v>
+        <v>242</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>337</v>
+        <v>398</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>338</v>
+        <v>399</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>339</v>
+        <v>400</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>340</v>
+        <v>401</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>341</v>
+        <v>243</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>342</v>
+        <v>244</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>344</v>
+        <v>246</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>345</v>
+        <v>402</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>346</v>
+        <v>247</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>350</v>
+        <v>403</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>357</v>
+        <v>251</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>359</v>
+        <v>252</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>366</v>
+        <v>253</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>381</v>
+        <v>254</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>382</v>
+        <v>255</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>386</v>
+        <v>256</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>392</v>
+        <v>257</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>396</v>
+        <v>258</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>397</v>
+        <v>259</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>403</v>
+        <v>260</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>405</v>
+        <v>261</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>406</v>
+        <v>262</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>407</v>
+        <v>263</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>408</v>
+        <v>264</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>409</v>
+        <v>265</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>411</v>
+        <v>266</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>413</v>
+        <v>267</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>418</v>
+        <v>268</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>420</v>
+        <v>269</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>421</v>
+        <v>270</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>429</v>
+        <v>462</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>433</v>
+        <v>466</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>434</v>
+        <v>467</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>435</v>
+        <v>468</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>436</v>
+        <v>469</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>437</v>
+        <v>470</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>438</v>
+        <v>471</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>439</v>
+        <v>472</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>440</v>
+        <v>473</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>441</v>
+        <v>271</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>442</v>
+        <v>272</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>443</v>
+        <v>273</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>448</v>
+        <v>274</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>450</v>
+        <v>275</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>451</v>
+        <v>276</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>456</v>
+        <v>277</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>458</v>
+        <v>278</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>459</v>
+        <v>279</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>460</v>
+        <v>280</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>465</v>
+        <v>281</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>466</v>
+        <v>282</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>467</v>
+        <v>283</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>468</v>
+        <v>284</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>469</v>
+        <v>285</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>470</v>
+        <v>286</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>471</v>
+        <v>287</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>473</v>
+        <v>288</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>474</v>
+        <v>289</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>475</v>
+        <v>290</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>477</v>
+        <v>291</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>478</v>
+        <v>292</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>480</v>
+        <v>293</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>481</v>
+        <v>294</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>483</v>
+        <v>295</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>484</v>
+        <v>296</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>486</v>
+        <v>297</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>489</v>
+        <v>298</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>490</v>
+        <v>299</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>493</v>
+        <v>300</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>494</v>
+        <v>301</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>497</v>
+        <v>302</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>498</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>